--- a/peak_load-VoltageProfile.xlsx
+++ b/peak_load-VoltageProfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afiq Hafizuddin\Documents\MATLAB\01-STATIC-DUMA-AMEND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E305E6-F6A5-4640-958A-6A2EB161F5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954607A9-90DD-42E5-BE86-848BCAF3FD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>Voltage p.u.</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -1889,6 +1892,3288 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sectionalized!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sectionalized!$B$3:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.95443999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94996000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94421999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93989999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93701999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93557999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94520999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94423999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94869000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94742999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94486000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94416</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94416</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94198999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93877999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.93627000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93523000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.93464000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94789000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94665999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94647000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94211</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.93893000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.93779000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95416999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95321</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95072000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.94986000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94620000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94501000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.94445999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95350999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95340999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.93972</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.93905000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.93737999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95416000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95111999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.95108000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-08B6-4E5C-9183-7F1367FA76DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sectionalized!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sectionalized!$C$3:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.95487999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95048999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94501999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94091999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93818000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93681000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94611000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94520999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94933000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94825999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94623999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94604999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94611000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94320999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94027000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.93801999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93708000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.93652999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94852000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94742999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94726999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94311999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94013000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.93906000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95464000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95376000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95147000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95065</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94689000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94572999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.94521999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95408000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95404999999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.94077999999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.94013999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.93855999999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95465999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95187999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.95184000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-08B6-4E5C-9183-7F1367FA76DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sectionalized!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sectionalized!$D$3:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.95530999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95101000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94581999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94191000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93930999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93801000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94615000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94994999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94908000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94760999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94791000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94803999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94440999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94174000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.93974000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93891000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.93840999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94913999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94818999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94803999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94411</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94130000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.94030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95508999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95430999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95221</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95143</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94755999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94643999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.94596000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95464000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95467000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.94181999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.94121999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.93972</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95516000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95262000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.95259000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-08B6-4E5C-9183-7F1367FA76DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sectionalized!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sectionalized!$E$3:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.95572999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95150999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94659000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94289000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94042999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93918999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94784999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94706999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94987999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94894999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94974999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94994999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94559000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94318999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94144000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94071000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94025000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94974000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94891999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94879999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94508000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94245999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.94152999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95553999999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95484000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95294000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95218999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94821999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94713999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.94669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95518000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95528000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.94284999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.94228999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.94086999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95564000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95335000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.95333000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-08B6-4E5C-9183-7F1367FA76DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sectionalized!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sectionalized!$F$3:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.95613000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94735000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94386000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94152999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94035999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95113000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95067000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95028000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95157000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95182999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94674999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94462000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94313000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9425</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94208000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95033000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94964000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94955000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94603000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94360999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.94274000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95596999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95535999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95367000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95294999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94886999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94784000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.94742000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95572000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95589000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.94388000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.94335000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.94201000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95611000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95408000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.95406000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-08B6-4E5C-9183-7F1367FA76DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sectionalized!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sectionalized!$G$3:$G$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.95652999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95245999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94808999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94150999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94952000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.94886999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95159000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95335999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95369000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94789000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94603000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94477999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94425999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.94389000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95089999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95033999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95026999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94696000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94472999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.94393000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95638999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95587</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95437000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95369000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94950999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94852000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.94813000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95625000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95648</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.94488000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.94438999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.94313999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95657000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95479000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.95477000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-08B6-4E5C-9183-7F1367FA76DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sectionalized!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Upper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sectionalized!$H$3:$H$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-08B6-4E5C-9183-7F1367FA76DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sectionalized!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sectionalized!$I$3:$I$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-08B6-4E5C-9183-7F1367FA76DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="449051280"/>
+        <c:axId val="449055856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="449051280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="449055856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="449055856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="449051280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>contingency!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>contingency!$B$3:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0.92517000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91940999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91222999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91080000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92488999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92390000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92047999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92034000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91935999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91683000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91561999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91507000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92386999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92259000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91996999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91927000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.91927000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.92410000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.91720999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91400999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91152</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.91049000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.90990000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.91049000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.90983000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.90817000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.92305000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.92179999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.92161000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.92486999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.91729000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.91410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.91296999999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92176000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92171999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B8C1-47D8-8D08-67DCEBCB4FFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>contingency!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>contingency!$C$3:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0.92617000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92068000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91383000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91246000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92591999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92501999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92267999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92183999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92171000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92079</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91807000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91690000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91637999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92498000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92388999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92183000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92164000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92171000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92534000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.92530999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.91888999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91595000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91369999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.91276999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.91222999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.91208999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.91146000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.90988000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.92415000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.92303999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.92286999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.92593999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.91876000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.91574999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.91468000000000005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92308000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92305000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B8C1-47D8-8D08-67DCEBCB4FFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>contingency!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>contingency!$D$3:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0.92713000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92188999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91798000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91537999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92689999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92395000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92313999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92301999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92217000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91925999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91813</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91764000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92603000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92515000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92364000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92395000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92408999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92642999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.92647000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.92051000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91783000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91583999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.91500999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.91449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.91363000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.91303999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.91154000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.92520999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.92423</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.92408000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.92696999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.92017000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.91735</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.91634000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92435999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92432999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B8C1-47D8-8D08-67DCEBCB4FFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>contingency!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>contingency!$E$3:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0.92803000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92306999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91688000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91564000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92712000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92517000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9244</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92428999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9204</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91930999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91884999999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92705000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92635999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92540999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92623</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92642999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92747999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.92757999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.92206999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91966000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91791999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.91718999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.91673000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.91513</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.91456999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.91315000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.92622000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.92537999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.92525999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.92793999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.92152999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.91890000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.91796</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92559000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B8C1-47D8-8D08-67DCEBCB4FFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>contingency!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>contingency!$F$3:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0.92889999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92418999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92066999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91832999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91715999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92873000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92810000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92635999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92562</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92551000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92478000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92044000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92001999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92752999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92713999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92845999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92873000000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92847000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.92864000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.92359000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.92144000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91995000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.91932000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.91890000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.91657999999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.91605000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.91471999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.92718999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.92647999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.92637999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.92886999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.92284999999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9204</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.91952</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92678000000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92676000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B8C1-47D8-8D08-67DCEBCB4FFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>contingency!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100% PV Penetration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>contingency!$G$3:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0.92969999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92525999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92193999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91973000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91861999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.92956000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92903000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92749000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92678000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92669000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92601999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92254000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92152000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92113</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92891999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92864000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92879999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.93062</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93096000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92942000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.92964999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.92505999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.92317000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.92191999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92139000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.91798000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.91747000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.91622000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.92810000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.92752999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.92745999999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.92974999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.92410999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.92183999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.92103000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92791999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92789999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B8C1-47D8-8D08-67DCEBCB4FFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>contingency!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Upper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>contingency!$H$3:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B8C1-47D8-8D08-67DCEBCB4FFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>contingency!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lower</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>contingency!$I$3:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B8C1-47D8-8D08-67DCEBCB4FFC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="327444176"/>
+        <c:axId val="327444592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="327444176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327444592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="327444592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327444176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1929,7 +5214,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2486,6 +6883,88 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>126962</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>303567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2E7D7E-CD5E-4464-BA07-47ADAA64140B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>266699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48A8741-9602-46D4-8AF6-3D37F34F6075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2752,11 +7231,12 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="8" max="9" width="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3918,26 +8398,2370 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58818F0F-B8A4-4E9E-8A6B-6774FB0B32F0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:I41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="8" max="9" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.95443999999999996</v>
+      </c>
+      <c r="C3">
+        <v>0.95487999999999995</v>
+      </c>
+      <c r="D3">
+        <v>0.95530999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.95572999999999997</v>
+      </c>
+      <c r="F3">
+        <v>0.95613000000000004</v>
+      </c>
+      <c r="G3">
+        <v>0.95652999999999999</v>
+      </c>
+      <c r="H3">
+        <v>1.05</v>
+      </c>
+      <c r="I3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.94996000000000003</v>
+      </c>
+      <c r="C4">
+        <v>0.95048999999999995</v>
+      </c>
+      <c r="D4">
+        <v>0.95101000000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.95150999999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="G4">
+        <v>0.95245999999999997</v>
+      </c>
+      <c r="H4">
+        <v>1.05</v>
+      </c>
+      <c r="I4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.94421999999999995</v>
+      </c>
+      <c r="C5">
+        <v>0.94501999999999997</v>
+      </c>
+      <c r="D5">
+        <v>0.94581999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.94659000000000004</v>
+      </c>
+      <c r="F5">
+        <v>0.94735000000000003</v>
+      </c>
+      <c r="G5">
+        <v>0.94808999999999999</v>
+      </c>
+      <c r="H5">
+        <v>1.05</v>
+      </c>
+      <c r="I5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="C6">
+        <v>0.94091999999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.94191000000000003</v>
+      </c>
+      <c r="E6">
+        <v>0.94289000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.94386000000000003</v>
+      </c>
+      <c r="G6">
+        <v>0.94479999999999997</v>
+      </c>
+      <c r="H6">
+        <v>1.05</v>
+      </c>
+      <c r="I6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0.93701999999999996</v>
+      </c>
+      <c r="C7">
+        <v>0.93818000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.93930999999999998</v>
+      </c>
+      <c r="E7">
+        <v>0.94042999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.94152999999999998</v>
+      </c>
+      <c r="G7">
+        <v>0.94259999999999999</v>
+      </c>
+      <c r="H7">
+        <v>1.05</v>
+      </c>
+      <c r="I7">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.93557999999999997</v>
+      </c>
+      <c r="C8">
+        <v>0.93681000000000003</v>
+      </c>
+      <c r="D8">
+        <v>0.93801000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.93918999999999997</v>
+      </c>
+      <c r="F8">
+        <v>0.94035999999999997</v>
+      </c>
+      <c r="G8">
+        <v>0.94150999999999996</v>
+      </c>
+      <c r="H8">
+        <v>1.05</v>
+      </c>
+      <c r="I8">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0.94520999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.94611000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.94699</v>
+      </c>
+      <c r="E9">
+        <v>0.94784999999999997</v>
+      </c>
+      <c r="F9">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.94952000000000003</v>
+      </c>
+      <c r="H9">
+        <v>1.05</v>
+      </c>
+      <c r="I9">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0.94423999999999997</v>
+      </c>
+      <c r="C10">
+        <v>0.94520999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.94615000000000005</v>
+      </c>
+      <c r="E10">
+        <v>0.94706999999999997</v>
+      </c>
+      <c r="F10">
+        <v>0.94799</v>
+      </c>
+      <c r="G10">
+        <v>0.94886999999999999</v>
+      </c>
+      <c r="H10">
+        <v>1.05</v>
+      </c>
+      <c r="I10">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0.94869000000000003</v>
+      </c>
+      <c r="C11">
+        <v>0.94933000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.94994999999999996</v>
+      </c>
+      <c r="E11">
+        <v>0.95055000000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.95113000000000003</v>
+      </c>
+      <c r="G11">
+        <v>0.95169999999999999</v>
+      </c>
+      <c r="H11">
+        <v>1.05</v>
+      </c>
+      <c r="I11">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0.94742999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.94825999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.94908000000000003</v>
+      </c>
+      <c r="E12">
+        <v>0.94987999999999995</v>
+      </c>
+      <c r="F12">
+        <v>0.95067000000000002</v>
+      </c>
+      <c r="G12">
+        <v>0.95143</v>
+      </c>
+      <c r="H12">
+        <v>1.05</v>
+      </c>
+      <c r="I12">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0.94486000000000003</v>
+      </c>
+      <c r="C13">
+        <v>0.94623999999999997</v>
+      </c>
+      <c r="D13">
+        <v>0.94760999999999995</v>
+      </c>
+      <c r="E13">
+        <v>0.94894999999999996</v>
+      </c>
+      <c r="F13">
+        <v>0.95028000000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.95159000000000005</v>
+      </c>
+      <c r="H13">
+        <v>1.05</v>
+      </c>
+      <c r="I13">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>0.94416</v>
+      </c>
+      <c r="C14">
+        <v>0.94604999999999995</v>
+      </c>
+      <c r="D14">
+        <v>0.94791000000000003</v>
+      </c>
+      <c r="E14">
+        <v>0.94974999999999998</v>
+      </c>
+      <c r="F14">
+        <v>0.95157000000000003</v>
+      </c>
+      <c r="G14">
+        <v>0.95335999999999999</v>
+      </c>
+      <c r="H14">
+        <v>1.05</v>
+      </c>
+      <c r="I14">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0.94416</v>
+      </c>
+      <c r="C15">
+        <v>0.94611000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.94803999999999999</v>
+      </c>
+      <c r="E15">
+        <v>0.94994999999999996</v>
+      </c>
+      <c r="F15">
+        <v>0.95182999999999995</v>
+      </c>
+      <c r="G15">
+        <v>0.95369000000000004</v>
+      </c>
+      <c r="H15">
+        <v>1.05</v>
+      </c>
+      <c r="I15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>0.94198999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.94320999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.94440999999999997</v>
+      </c>
+      <c r="E16">
+        <v>0.94559000000000004</v>
+      </c>
+      <c r="F16">
+        <v>0.94674999999999998</v>
+      </c>
+      <c r="G16">
+        <v>0.94789000000000001</v>
+      </c>
+      <c r="H16">
+        <v>1.05</v>
+      </c>
+      <c r="I16">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0.93877999999999995</v>
+      </c>
+      <c r="C17">
+        <v>0.94027000000000005</v>
+      </c>
+      <c r="D17">
+        <v>0.94174000000000002</v>
+      </c>
+      <c r="E17">
+        <v>0.94318999999999997</v>
+      </c>
+      <c r="F17">
+        <v>0.94462000000000002</v>
+      </c>
+      <c r="G17">
+        <v>0.94603000000000004</v>
+      </c>
+      <c r="H17">
+        <v>1.05</v>
+      </c>
+      <c r="I17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>0.93627000000000005</v>
+      </c>
+      <c r="C18">
+        <v>0.93801999999999996</v>
+      </c>
+      <c r="D18">
+        <v>0.93974000000000002</v>
+      </c>
+      <c r="E18">
+        <v>0.94144000000000005</v>
+      </c>
+      <c r="F18">
+        <v>0.94313000000000002</v>
+      </c>
+      <c r="G18">
+        <v>0.94477999999999995</v>
+      </c>
+      <c r="H18">
+        <v>1.05</v>
+      </c>
+      <c r="I18">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>0.93523000000000001</v>
+      </c>
+      <c r="C19">
+        <v>0.93708000000000002</v>
+      </c>
+      <c r="D19">
+        <v>0.93891000000000002</v>
+      </c>
+      <c r="E19">
+        <v>0.94071000000000005</v>
+      </c>
+      <c r="F19">
+        <v>0.9425</v>
+      </c>
+      <c r="G19">
+        <v>0.94425999999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.05</v>
+      </c>
+      <c r="I19">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>0.93464000000000003</v>
+      </c>
+      <c r="C20">
+        <v>0.93652999999999997</v>
+      </c>
+      <c r="D20">
+        <v>0.93840999999999997</v>
+      </c>
+      <c r="E20">
+        <v>0.94025000000000003</v>
+      </c>
+      <c r="F20">
+        <v>0.94208000000000003</v>
+      </c>
+      <c r="G20">
+        <v>0.94389000000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.05</v>
+      </c>
+      <c r="I20">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>0.94789000000000001</v>
+      </c>
+      <c r="C21">
+        <v>0.94852000000000003</v>
+      </c>
+      <c r="D21">
+        <v>0.94913999999999998</v>
+      </c>
+      <c r="E21">
+        <v>0.94974000000000003</v>
+      </c>
+      <c r="F21">
+        <v>0.95033000000000001</v>
+      </c>
+      <c r="G21">
+        <v>0.95089999999999997</v>
+      </c>
+      <c r="H21">
+        <v>1.05</v>
+      </c>
+      <c r="I21">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>0.94665999999999995</v>
+      </c>
+      <c r="C22">
+        <v>0.94742999999999999</v>
+      </c>
+      <c r="D22">
+        <v>0.94818999999999998</v>
+      </c>
+      <c r="E22">
+        <v>0.94891999999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.94964000000000004</v>
+      </c>
+      <c r="G22">
+        <v>0.95033999999999996</v>
+      </c>
+      <c r="H22">
+        <v>1.05</v>
+      </c>
+      <c r="I22">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>0.94647000000000003</v>
+      </c>
+      <c r="C23">
+        <v>0.94726999999999995</v>
+      </c>
+      <c r="D23">
+        <v>0.94803999999999999</v>
+      </c>
+      <c r="E23">
+        <v>0.94879999999999998</v>
+      </c>
+      <c r="F23">
+        <v>0.94955000000000001</v>
+      </c>
+      <c r="G23">
+        <v>0.95026999999999995</v>
+      </c>
+      <c r="H23">
+        <v>1.05</v>
+      </c>
+      <c r="I23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>0.94211</v>
+      </c>
+      <c r="C24">
+        <v>0.94311999999999996</v>
+      </c>
+      <c r="D24">
+        <v>0.94411</v>
+      </c>
+      <c r="E24">
+        <v>0.94508000000000003</v>
+      </c>
+      <c r="F24">
+        <v>0.94603000000000004</v>
+      </c>
+      <c r="G24">
+        <v>0.94696000000000002</v>
+      </c>
+      <c r="H24">
+        <v>1.05</v>
+      </c>
+      <c r="I24">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>0.93893000000000004</v>
+      </c>
+      <c r="C25">
+        <v>0.94013000000000002</v>
+      </c>
+      <c r="D25">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="E25">
+        <v>0.94245999999999996</v>
+      </c>
+      <c r="F25">
+        <v>0.94360999999999995</v>
+      </c>
+      <c r="G25">
+        <v>0.94472999999999996</v>
+      </c>
+      <c r="H25">
+        <v>1.05</v>
+      </c>
+      <c r="I25">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>0.93779000000000001</v>
+      </c>
+      <c r="C26">
+        <v>0.93906000000000001</v>
+      </c>
+      <c r="D26">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="E26">
+        <v>0.94152999999999998</v>
+      </c>
+      <c r="F26">
+        <v>0.94274000000000002</v>
+      </c>
+      <c r="G26">
+        <v>0.94393000000000005</v>
+      </c>
+      <c r="H26">
+        <v>1.05</v>
+      </c>
+      <c r="I26">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>0.95416999999999996</v>
+      </c>
+      <c r="C27">
+        <v>0.95464000000000004</v>
+      </c>
+      <c r="D27">
+        <v>0.95508999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.95553999999999994</v>
+      </c>
+      <c r="F27">
+        <v>0.95596999999999999</v>
+      </c>
+      <c r="G27">
+        <v>0.95638999999999996</v>
+      </c>
+      <c r="H27">
+        <v>1.05</v>
+      </c>
+      <c r="I27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>0.95321</v>
+      </c>
+      <c r="C28">
+        <v>0.95376000000000005</v>
+      </c>
+      <c r="D28">
+        <v>0.95430999999999999</v>
+      </c>
+      <c r="E28">
+        <v>0.95484000000000002</v>
+      </c>
+      <c r="F28">
+        <v>0.95535999999999999</v>
+      </c>
+      <c r="G28">
+        <v>0.95587</v>
+      </c>
+      <c r="H28">
+        <v>1.05</v>
+      </c>
+      <c r="I28">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>0.95072000000000001</v>
+      </c>
+      <c r="C29">
+        <v>0.95147000000000004</v>
+      </c>
+      <c r="D29">
+        <v>0.95221</v>
+      </c>
+      <c r="E29">
+        <v>0.95294000000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.95367000000000002</v>
+      </c>
+      <c r="G29">
+        <v>0.95437000000000005</v>
+      </c>
+      <c r="H29">
+        <v>1.05</v>
+      </c>
+      <c r="I29">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>0.94986000000000004</v>
+      </c>
+      <c r="C30">
+        <v>0.95065</v>
+      </c>
+      <c r="D30">
+        <v>0.95143</v>
+      </c>
+      <c r="E30">
+        <v>0.95218999999999998</v>
+      </c>
+      <c r="F30">
+        <v>0.95294999999999996</v>
+      </c>
+      <c r="G30">
+        <v>0.95369000000000004</v>
+      </c>
+      <c r="H30">
+        <v>1.05</v>
+      </c>
+      <c r="I30">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>0.94620000000000004</v>
+      </c>
+      <c r="C31">
+        <v>0.94689000000000001</v>
+      </c>
+      <c r="D31">
+        <v>0.94755999999999996</v>
+      </c>
+      <c r="E31">
+        <v>0.94821999999999995</v>
+      </c>
+      <c r="F31">
+        <v>0.94886999999999999</v>
+      </c>
+      <c r="G31">
+        <v>0.94950999999999997</v>
+      </c>
+      <c r="H31">
+        <v>1.05</v>
+      </c>
+      <c r="I31">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>0.94501000000000002</v>
+      </c>
+      <c r="C32">
+        <v>0.94572999999999996</v>
+      </c>
+      <c r="D32">
+        <v>0.94643999999999995</v>
+      </c>
+      <c r="E32">
+        <v>0.94713999999999998</v>
+      </c>
+      <c r="F32">
+        <v>0.94784000000000002</v>
+      </c>
+      <c r="G32">
+        <v>0.94852000000000003</v>
+      </c>
+      <c r="H32">
+        <v>1.05</v>
+      </c>
+      <c r="I32">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>0.94445999999999997</v>
+      </c>
+      <c r="C33">
+        <v>0.94521999999999995</v>
+      </c>
+      <c r="D33">
+        <v>0.94596000000000002</v>
+      </c>
+      <c r="E33">
+        <v>0.94669999999999999</v>
+      </c>
+      <c r="F33">
+        <v>0.94742000000000004</v>
+      </c>
+      <c r="G33">
+        <v>0.94813000000000003</v>
+      </c>
+      <c r="H33">
+        <v>1.05</v>
+      </c>
+      <c r="I33">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>0.95350999999999997</v>
+      </c>
+      <c r="C34">
+        <v>0.95408000000000004</v>
+      </c>
+      <c r="D34">
+        <v>0.95464000000000004</v>
+      </c>
+      <c r="E34">
+        <v>0.95518000000000003</v>
+      </c>
+      <c r="F34">
+        <v>0.95572000000000001</v>
+      </c>
+      <c r="G34">
+        <v>0.95625000000000004</v>
+      </c>
+      <c r="H34">
+        <v>1.05</v>
+      </c>
+      <c r="I34">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>0.95340999999999998</v>
+      </c>
+      <c r="C35">
+        <v>0.95404999999999995</v>
+      </c>
+      <c r="D35">
+        <v>0.95467000000000002</v>
+      </c>
+      <c r="E35">
+        <v>0.95528000000000002</v>
+      </c>
+      <c r="F35">
+        <v>0.95589000000000002</v>
+      </c>
+      <c r="G35">
+        <v>0.95648</v>
+      </c>
+      <c r="H35">
+        <v>1.05</v>
+      </c>
+      <c r="I35">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>0.93972</v>
+      </c>
+      <c r="C36">
+        <v>0.94077999999999995</v>
+      </c>
+      <c r="D36">
+        <v>0.94181999999999999</v>
+      </c>
+      <c r="E36">
+        <v>0.94284999999999997</v>
+      </c>
+      <c r="F36">
+        <v>0.94388000000000005</v>
+      </c>
+      <c r="G36">
+        <v>0.94488000000000005</v>
+      </c>
+      <c r="H36">
+        <v>1.05</v>
+      </c>
+      <c r="I36">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>0.93905000000000005</v>
+      </c>
+      <c r="C37">
+        <v>0.94013999999999998</v>
+      </c>
+      <c r="D37">
+        <v>0.94121999999999995</v>
+      </c>
+      <c r="E37">
+        <v>0.94228999999999996</v>
+      </c>
+      <c r="F37">
+        <v>0.94335000000000002</v>
+      </c>
+      <c r="G37">
+        <v>0.94438999999999995</v>
+      </c>
+      <c r="H37">
+        <v>1.05</v>
+      </c>
+      <c r="I37">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>0.93737999999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.93855999999999995</v>
+      </c>
+      <c r="D38">
+        <v>0.93972</v>
+      </c>
+      <c r="E38">
+        <v>0.94086999999999998</v>
+      </c>
+      <c r="F38">
+        <v>0.94201000000000001</v>
+      </c>
+      <c r="G38">
+        <v>0.94313999999999998</v>
+      </c>
+      <c r="H38">
+        <v>1.05</v>
+      </c>
+      <c r="I38">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>0.95416000000000001</v>
+      </c>
+      <c r="C39">
+        <v>0.95465999999999995</v>
+      </c>
+      <c r="D39">
+        <v>0.95516000000000001</v>
+      </c>
+      <c r="E39">
+        <v>0.95564000000000004</v>
+      </c>
+      <c r="F39">
+        <v>0.95611000000000002</v>
+      </c>
+      <c r="G39">
+        <v>0.95657000000000003</v>
+      </c>
+      <c r="H39">
+        <v>1.05</v>
+      </c>
+      <c r="I39">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>0.95111999999999997</v>
+      </c>
+      <c r="C40">
+        <v>0.95187999999999995</v>
+      </c>
+      <c r="D40">
+        <v>0.95262000000000002</v>
+      </c>
+      <c r="E40">
+        <v>0.95335000000000003</v>
+      </c>
+      <c r="F40">
+        <v>0.95408000000000004</v>
+      </c>
+      <c r="G40">
+        <v>0.95479000000000003</v>
+      </c>
+      <c r="H40">
+        <v>1.05</v>
+      </c>
+      <c r="I40">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>0.95108000000000004</v>
+      </c>
+      <c r="C41">
+        <v>0.95184000000000002</v>
+      </c>
+      <c r="D41">
+        <v>0.95259000000000005</v>
+      </c>
+      <c r="E41">
+        <v>0.95333000000000001</v>
+      </c>
+      <c r="F41">
+        <v>0.95406000000000002</v>
+      </c>
+      <c r="G41">
+        <v>0.95477000000000001</v>
+      </c>
+      <c r="H41">
+        <v>1.05</v>
+      </c>
+      <c r="I41">
+        <v>0.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832E3721-4C53-4F9C-92BA-173B02977E54}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="7" width="8.5546875" customWidth="1"/>
+    <col min="8" max="9" width="5.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0.92517000000000005</v>
+      </c>
+      <c r="C3">
+        <v>0.92617000000000005</v>
+      </c>
+      <c r="D3">
+        <v>0.92713000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.92803000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.92889999999999995</v>
+      </c>
+      <c r="G3">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="H3">
+        <v>1.05</v>
+      </c>
+      <c r="I3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.91940999999999995</v>
+      </c>
+      <c r="C4">
+        <v>0.92068000000000005</v>
+      </c>
+      <c r="D4">
+        <v>0.92188999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.92306999999999995</v>
+      </c>
+      <c r="F4">
+        <v>0.92418999999999996</v>
+      </c>
+      <c r="G4">
+        <v>0.92525999999999997</v>
+      </c>
+      <c r="H4">
+        <v>1.05</v>
+      </c>
+      <c r="I4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.91657</v>
+      </c>
+      <c r="D5">
+        <v>0.91798000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.91935</v>
+      </c>
+      <c r="F5">
+        <v>0.92066999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.92193999999999998</v>
+      </c>
+      <c r="H5">
+        <v>1.05</v>
+      </c>
+      <c r="I5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.91222999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.91383000000000003</v>
+      </c>
+      <c r="D6">
+        <v>0.91537999999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.91688000000000003</v>
+      </c>
+      <c r="F6">
+        <v>0.91832999999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.91973000000000005</v>
+      </c>
+      <c r="H6">
+        <v>1.05</v>
+      </c>
+      <c r="I6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="C7">
+        <v>0.91246000000000005</v>
+      </c>
+      <c r="D7">
+        <v>0.91408</v>
+      </c>
+      <c r="E7">
+        <v>0.91564000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.91715999999999998</v>
+      </c>
+      <c r="G7">
+        <v>0.91861999999999999</v>
+      </c>
+      <c r="H7">
+        <v>1.05</v>
+      </c>
+      <c r="I7">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.92488999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.92591999999999997</v>
+      </c>
+      <c r="D8">
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="E8">
+        <v>0.92784</v>
+      </c>
+      <c r="F8">
+        <v>0.92873000000000006</v>
+      </c>
+      <c r="G8">
+        <v>0.92956000000000005</v>
+      </c>
+      <c r="H8">
+        <v>1.05</v>
+      </c>
+      <c r="I8">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.92390000000000005</v>
+      </c>
+      <c r="C9">
+        <v>0.92501999999999995</v>
+      </c>
+      <c r="D9">
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="E9">
+        <v>0.92712000000000006</v>
+      </c>
+      <c r="F9">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="G9">
+        <v>0.92903000000000002</v>
+      </c>
+      <c r="H9">
+        <v>1.05</v>
+      </c>
+      <c r="I9">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.92135</v>
+      </c>
+      <c r="C10">
+        <v>0.92267999999999994</v>
+      </c>
+      <c r="D10">
+        <v>0.92395000000000005</v>
+      </c>
+      <c r="E10">
+        <v>0.92517000000000005</v>
+      </c>
+      <c r="F10">
+        <v>0.92635999999999996</v>
+      </c>
+      <c r="G10">
+        <v>0.92749000000000004</v>
+      </c>
+      <c r="H10">
+        <v>1.05</v>
+      </c>
+      <c r="I10">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.92047999999999996</v>
+      </c>
+      <c r="C11">
+        <v>0.92183999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.92313999999999996</v>
+      </c>
+      <c r="E11">
+        <v>0.9244</v>
+      </c>
+      <c r="F11">
+        <v>0.92562</v>
+      </c>
+      <c r="G11">
+        <v>0.92678000000000005</v>
+      </c>
+      <c r="H11">
+        <v>1.05</v>
+      </c>
+      <c r="I11">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.92034000000000005</v>
+      </c>
+      <c r="C12">
+        <v>0.92171000000000003</v>
+      </c>
+      <c r="D12">
+        <v>0.92301999999999995</v>
+      </c>
+      <c r="E12">
+        <v>0.92428999999999994</v>
+      </c>
+      <c r="F12">
+        <v>0.92551000000000005</v>
+      </c>
+      <c r="G12">
+        <v>0.92669000000000001</v>
+      </c>
+      <c r="H12">
+        <v>1.05</v>
+      </c>
+      <c r="I12">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.91935999999999996</v>
+      </c>
+      <c r="C13">
+        <v>0.92079</v>
+      </c>
+      <c r="D13">
+        <v>0.92217000000000005</v>
+      </c>
+      <c r="E13">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="F13">
+        <v>0.92478000000000005</v>
+      </c>
+      <c r="G13">
+        <v>0.92601999999999995</v>
+      </c>
+      <c r="H13">
+        <v>1.05</v>
+      </c>
+      <c r="I13">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.91683000000000003</v>
+      </c>
+      <c r="C14">
+        <v>0.91807000000000005</v>
+      </c>
+      <c r="D14">
+        <v>0.91925999999999997</v>
+      </c>
+      <c r="E14">
+        <v>0.9204</v>
+      </c>
+      <c r="F14">
+        <v>0.92149999999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.92254000000000003</v>
+      </c>
+      <c r="H14">
+        <v>1.05</v>
+      </c>
+      <c r="I14">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.91561999999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="D15">
+        <v>0.91813</v>
+      </c>
+      <c r="E15">
+        <v>0.91930999999999996</v>
+      </c>
+      <c r="F15">
+        <v>0.92044000000000004</v>
+      </c>
+      <c r="G15">
+        <v>0.92152000000000001</v>
+      </c>
+      <c r="H15">
+        <v>1.05</v>
+      </c>
+      <c r="I15">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.91507000000000005</v>
+      </c>
+      <c r="C16">
+        <v>0.91637999999999997</v>
+      </c>
+      <c r="D16">
+        <v>0.91764000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.91884999999999994</v>
+      </c>
+      <c r="F16">
+        <v>0.92001999999999995</v>
+      </c>
+      <c r="G16">
+        <v>0.92113</v>
+      </c>
+      <c r="H16">
+        <v>1.05</v>
+      </c>
+      <c r="I16">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.92386999999999997</v>
+      </c>
+      <c r="C17">
+        <v>0.92498000000000002</v>
+      </c>
+      <c r="D17">
+        <v>0.92603000000000002</v>
+      </c>
+      <c r="E17">
+        <v>0.92705000000000004</v>
+      </c>
+      <c r="F17">
+        <v>0.92801</v>
+      </c>
+      <c r="G17">
+        <v>0.92891999999999997</v>
+      </c>
+      <c r="H17">
+        <v>1.05</v>
+      </c>
+      <c r="I17">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.92259000000000002</v>
+      </c>
+      <c r="C18">
+        <v>0.92388999999999999</v>
+      </c>
+      <c r="D18">
+        <v>0.92515000000000003</v>
+      </c>
+      <c r="E18">
+        <v>0.92635999999999996</v>
+      </c>
+      <c r="F18">
+        <v>0.92752999999999997</v>
+      </c>
+      <c r="G18">
+        <v>0.92864000000000002</v>
+      </c>
+      <c r="H18">
+        <v>1.05</v>
+      </c>
+      <c r="I18">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.91996999999999995</v>
+      </c>
+      <c r="C19">
+        <v>0.92183000000000004</v>
+      </c>
+      <c r="D19">
+        <v>0.92364000000000002</v>
+      </c>
+      <c r="E19">
+        <v>0.92540999999999995</v>
+      </c>
+      <c r="F19">
+        <v>0.92713999999999996</v>
+      </c>
+      <c r="G19">
+        <v>0.92879999999999996</v>
+      </c>
+      <c r="H19">
+        <v>1.05</v>
+      </c>
+      <c r="I19">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.91927000000000003</v>
+      </c>
+      <c r="C20">
+        <v>0.92164000000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.92395000000000005</v>
+      </c>
+      <c r="E20">
+        <v>0.92623</v>
+      </c>
+      <c r="F20">
+        <v>0.92845999999999995</v>
+      </c>
+      <c r="G20">
+        <v>0.93062</v>
+      </c>
+      <c r="H20">
+        <v>1.05</v>
+      </c>
+      <c r="I20">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.91927000000000003</v>
+      </c>
+      <c r="C21">
+        <v>0.92171000000000003</v>
+      </c>
+      <c r="D21">
+        <v>0.92408999999999997</v>
+      </c>
+      <c r="E21">
+        <v>0.92642999999999998</v>
+      </c>
+      <c r="F21">
+        <v>0.92873000000000006</v>
+      </c>
+      <c r="G21">
+        <v>0.93096000000000001</v>
+      </c>
+      <c r="H21">
+        <v>1.05</v>
+      </c>
+      <c r="I21">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.92420000000000002</v>
+      </c>
+      <c r="C22">
+        <v>0.92534000000000005</v>
+      </c>
+      <c r="D22">
+        <v>0.92642999999999998</v>
+      </c>
+      <c r="E22">
+        <v>0.92747999999999997</v>
+      </c>
+      <c r="F22">
+        <v>0.92847000000000002</v>
+      </c>
+      <c r="G22">
+        <v>0.92942000000000002</v>
+      </c>
+      <c r="H22">
+        <v>1.05</v>
+      </c>
+      <c r="I22">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="C23">
+        <v>0.92530999999999997</v>
+      </c>
+      <c r="D23">
+        <v>0.92647000000000002</v>
+      </c>
+      <c r="E23">
+        <v>0.92757999999999996</v>
+      </c>
+      <c r="F23">
+        <v>0.92864000000000002</v>
+      </c>
+      <c r="G23">
+        <v>0.92964999999999998</v>
+      </c>
+      <c r="H23">
+        <v>1.05</v>
+      </c>
+      <c r="I23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.91720999999999997</v>
+      </c>
+      <c r="C24">
+        <v>0.91888999999999998</v>
+      </c>
+      <c r="D24">
+        <v>0.92051000000000005</v>
+      </c>
+      <c r="E24">
+        <v>0.92206999999999995</v>
+      </c>
+      <c r="F24">
+        <v>0.92359000000000002</v>
+      </c>
+      <c r="G24">
+        <v>0.92505999999999999</v>
+      </c>
+      <c r="H24">
+        <v>1.05</v>
+      </c>
+      <c r="I24">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.91400999999999999</v>
+      </c>
+      <c r="C25">
+        <v>0.91595000000000004</v>
+      </c>
+      <c r="D25">
+        <v>0.91783000000000003</v>
+      </c>
+      <c r="E25">
+        <v>0.91966000000000003</v>
+      </c>
+      <c r="F25">
+        <v>0.92144000000000004</v>
+      </c>
+      <c r="G25">
+        <v>0.92317000000000005</v>
+      </c>
+      <c r="H25">
+        <v>1.05</v>
+      </c>
+      <c r="I25">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.91152</v>
+      </c>
+      <c r="C26">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="D26">
+        <v>0.91583999999999999</v>
+      </c>
+      <c r="E26">
+        <v>0.91791999999999996</v>
+      </c>
+      <c r="F26">
+        <v>0.91995000000000005</v>
+      </c>
+      <c r="G26">
+        <v>0.92191999999999996</v>
+      </c>
+      <c r="H26">
+        <v>1.05</v>
+      </c>
+      <c r="I26">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.91049000000000002</v>
+      </c>
+      <c r="C27">
+        <v>0.91276999999999997</v>
+      </c>
+      <c r="D27">
+        <v>0.91500999999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.91718999999999995</v>
+      </c>
+      <c r="F27">
+        <v>0.91932000000000003</v>
+      </c>
+      <c r="G27">
+        <v>0.92139000000000004</v>
+      </c>
+      <c r="H27">
+        <v>1.05</v>
+      </c>
+      <c r="I27">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="C28">
+        <v>0.91222999999999999</v>
+      </c>
+      <c r="D28">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="E28">
+        <v>0.91673000000000004</v>
+      </c>
+      <c r="F28">
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="G28">
+        <v>0.92101</v>
+      </c>
+      <c r="H28">
+        <v>1.05</v>
+      </c>
+      <c r="I28">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.91049000000000002</v>
+      </c>
+      <c r="C29">
+        <v>0.91208999999999996</v>
+      </c>
+      <c r="D29">
+        <v>0.91363000000000005</v>
+      </c>
+      <c r="E29">
+        <v>0.91513</v>
+      </c>
+      <c r="F29">
+        <v>0.91657999999999995</v>
+      </c>
+      <c r="G29">
+        <v>0.91798000000000002</v>
+      </c>
+      <c r="H29">
+        <v>1.05</v>
+      </c>
+      <c r="I29">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.90983000000000003</v>
+      </c>
+      <c r="C30">
+        <v>0.91146000000000005</v>
+      </c>
+      <c r="D30">
+        <v>0.91303999999999996</v>
+      </c>
+      <c r="E30">
+        <v>0.91456999999999999</v>
+      </c>
+      <c r="F30">
+        <v>0.91605000000000003</v>
+      </c>
+      <c r="G30">
+        <v>0.91747000000000001</v>
+      </c>
+      <c r="H30">
+        <v>1.05</v>
+      </c>
+      <c r="I30">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.90817000000000003</v>
+      </c>
+      <c r="C31">
+        <v>0.90988000000000002</v>
+      </c>
+      <c r="D31">
+        <v>0.91154000000000002</v>
+      </c>
+      <c r="E31">
+        <v>0.91315000000000002</v>
+      </c>
+      <c r="F31">
+        <v>0.91471999999999998</v>
+      </c>
+      <c r="G31">
+        <v>0.91622000000000003</v>
+      </c>
+      <c r="H31">
+        <v>1.05</v>
+      </c>
+      <c r="I31">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.92305000000000004</v>
+      </c>
+      <c r="C32">
+        <v>0.92415000000000003</v>
+      </c>
+      <c r="D32">
+        <v>0.92520999999999998</v>
+      </c>
+      <c r="E32">
+        <v>0.92622000000000004</v>
+      </c>
+      <c r="F32">
+        <v>0.92718999999999996</v>
+      </c>
+      <c r="G32">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="H32">
+        <v>1.05</v>
+      </c>
+      <c r="I32">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.92179999999999995</v>
+      </c>
+      <c r="C33">
+        <v>0.92303999999999997</v>
+      </c>
+      <c r="D33">
+        <v>0.92423</v>
+      </c>
+      <c r="E33">
+        <v>0.92537999999999998</v>
+      </c>
+      <c r="F33">
+        <v>0.92647999999999997</v>
+      </c>
+      <c r="G33">
+        <v>0.92752999999999997</v>
+      </c>
+      <c r="H33">
+        <v>1.05</v>
+      </c>
+      <c r="I33">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.92161000000000004</v>
+      </c>
+      <c r="C34">
+        <v>0.92286999999999997</v>
+      </c>
+      <c r="D34">
+        <v>0.92408000000000001</v>
+      </c>
+      <c r="E34">
+        <v>0.92525999999999997</v>
+      </c>
+      <c r="F34">
+        <v>0.92637999999999998</v>
+      </c>
+      <c r="G34">
+        <v>0.92745999999999995</v>
+      </c>
+      <c r="H34">
+        <v>1.05</v>
+      </c>
+      <c r="I34">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.92486999999999997</v>
+      </c>
+      <c r="C35">
+        <v>0.92593999999999999</v>
+      </c>
+      <c r="D35">
+        <v>0.92696999999999996</v>
+      </c>
+      <c r="E35">
+        <v>0.92793999999999999</v>
+      </c>
+      <c r="F35">
+        <v>0.92886999999999997</v>
+      </c>
+      <c r="G35">
+        <v>0.92974999999999997</v>
+      </c>
+      <c r="H35">
+        <v>1.05</v>
+      </c>
+      <c r="I35">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.91729000000000005</v>
+      </c>
+      <c r="C36">
+        <v>0.91876000000000002</v>
+      </c>
+      <c r="D36">
+        <v>0.92017000000000004</v>
+      </c>
+      <c r="E36">
+        <v>0.92152999999999996</v>
+      </c>
+      <c r="F36">
+        <v>0.92284999999999995</v>
+      </c>
+      <c r="G36">
+        <v>0.92410999999999999</v>
+      </c>
+      <c r="H36">
+        <v>1.05</v>
+      </c>
+      <c r="I36">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="C37">
+        <v>0.91574999999999995</v>
+      </c>
+      <c r="D37">
+        <v>0.91735</v>
+      </c>
+      <c r="E37">
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="F37">
+        <v>0.9204</v>
+      </c>
+      <c r="G37">
+        <v>0.92183999999999999</v>
+      </c>
+      <c r="H37">
+        <v>1.05</v>
+      </c>
+      <c r="I37">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.91296999999999995</v>
+      </c>
+      <c r="C38">
+        <v>0.91468000000000005</v>
+      </c>
+      <c r="D38">
+        <v>0.91634000000000004</v>
+      </c>
+      <c r="E38">
+        <v>0.91796</v>
+      </c>
+      <c r="F38">
+        <v>0.91952</v>
+      </c>
+      <c r="G38">
+        <v>0.92103000000000002</v>
+      </c>
+      <c r="H38">
+        <v>1.05</v>
+      </c>
+      <c r="I38">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.92176000000000002</v>
+      </c>
+      <c r="C39">
+        <v>0.92308000000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.92435999999999996</v>
+      </c>
+      <c r="E39">
+        <v>0.92559000000000002</v>
+      </c>
+      <c r="F39">
+        <v>0.92678000000000005</v>
+      </c>
+      <c r="G39">
+        <v>0.92791999999999997</v>
+      </c>
+      <c r="H39">
+        <v>1.05</v>
+      </c>
+      <c r="I39">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.92171999999999998</v>
+      </c>
+      <c r="C40">
+        <v>0.92305000000000004</v>
+      </c>
+      <c r="D40">
+        <v>0.92432999999999998</v>
+      </c>
+      <c r="E40">
+        <v>0.92557</v>
+      </c>
+      <c r="F40">
+        <v>0.92676000000000003</v>
+      </c>
+      <c r="G40">
+        <v>0.92789999999999995</v>
+      </c>
+      <c r="H40">
+        <v>1.05</v>
+      </c>
+      <c r="I40">
+        <v>0.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/peak_load-VoltageProfile.xlsx
+++ b/peak_load-VoltageProfile.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afiq Hafizuddin\Documents\MATLAB\01-STATIC-DUMA-AMEND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E791C57-77C4-4F91-B4E0-F682F722B8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473446AA-A3AF-4B78-81C5-C3C10EDE2633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parallel" sheetId="1" r:id="rId1"/>
     <sheet name="sectionalized" sheetId="2" r:id="rId2"/>
     <sheet name="contingency" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>Voltage p.u.</t>
   </si>
@@ -69,16 +66,16 @@
     <t>100% PV Penetration</t>
   </si>
   <si>
-    <t>Upper</t>
+    <t>1A</t>
   </si>
   <si>
-    <t>Lower</t>
+    <t>1B</t>
   </si>
   <si>
-    <t>A</t>
+    <t>Upper Voltage Limit</t>
   </si>
   <si>
-    <t>B</t>
+    <t>Lower Voltage Limit</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1259,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Upper</c:v>
+                  <c:v>Upper Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1420,7 +1417,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lower</c:v>
+                  <c:v>Lower Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2024,12 +2021,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -2142,8 +2140,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2314,12 +2312,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -2432,8 +2431,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2604,12 +2603,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -2722,8 +2722,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2894,12 +2894,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -3012,8 +3013,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3184,12 +3185,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -3302,8 +3304,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3480,12 +3482,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -3598,8 +3601,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3740,7 +3743,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Upper</c:v>
+                  <c:v>Upper Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3760,12 +3763,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -3878,8 +3882,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4020,7 +4024,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lower</c:v>
+                  <c:v>Lower Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4040,12 +4044,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>parallel!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -4158,8 +4163,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4773,121 +4778,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.95443999999999996</c:v>
+                  <c:v>0.97565000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94996000000000003</c:v>
+                  <c:v>0.96906000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94421999999999995</c:v>
+                  <c:v>0.96343000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93989999999999996</c:v>
+                  <c:v>0.95921000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93701999999999996</c:v>
+                  <c:v>0.95638999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93557999999999997</c:v>
+                  <c:v>0.95498000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94520999999999999</c:v>
+                  <c:v>0.97538999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94423999999999997</c:v>
+                  <c:v>0.97443999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94869000000000003</c:v>
+                  <c:v>0.97201000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.94742999999999999</c:v>
+                  <c:v>0.97116999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.94486000000000003</c:v>
+                  <c:v>0.96440999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94416</c:v>
+                  <c:v>0.96345999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.94416</c:v>
+                  <c:v>0.96760000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94198999999999999</c:v>
+                  <c:v>0.96641999999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.93877999999999995</c:v>
+                  <c:v>0.96589000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.93627000000000005</c:v>
+                  <c:v>0.96782000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.93523000000000001</c:v>
+                  <c:v>0.96657999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93464000000000003</c:v>
+                  <c:v>0.96406000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94789000000000001</c:v>
+                  <c:v>0.96338000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.94665999999999995</c:v>
+                  <c:v>0.96338000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.94647000000000003</c:v>
+                  <c:v>0.97474000000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.94211</c:v>
+                  <c:v>0.97463999999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.93893000000000004</c:v>
+                  <c:v>0.96126</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.93779000000000001</c:v>
+                  <c:v>0.95811000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.95416999999999996</c:v>
+                  <c:v>0.95565</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.95321</c:v>
+                  <c:v>0.95462999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.95072000000000001</c:v>
+                  <c:v>0.95404999999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.94986000000000004</c:v>
+                  <c:v>0.96126</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.94620000000000004</c:v>
+                  <c:v>0.96060999999999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.94501000000000002</c:v>
+                  <c:v>0.95896999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.94445999999999997</c:v>
+                  <c:v>0.96702999999999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.95350999999999997</c:v>
+                  <c:v>0.96582999999999997</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.95340999999999998</c:v>
+                  <c:v>0.96564000000000005</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.93972</c:v>
+                  <c:v>0.97536999999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.93905000000000005</c:v>
+                  <c:v>0.96136999999999995</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.93737999999999999</c:v>
+                  <c:v>0.95825000000000005</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.95416000000000001</c:v>
+                  <c:v>0.95713999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.95111999999999997</c:v>
+                  <c:v>0.97240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.95108000000000004</c:v>
+                  <c:v>0.97236999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4944,121 +4949,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.95487999999999995</c:v>
+                  <c:v>0.97616999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95048999999999995</c:v>
+                  <c:v>0.96972000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94501999999999997</c:v>
+                  <c:v>0.96436999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94091999999999998</c:v>
+                  <c:v>0.96033999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93818000000000001</c:v>
+                  <c:v>0.95765999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93681000000000003</c:v>
+                  <c:v>0.95631999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94611000000000001</c:v>
+                  <c:v>0.97592999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94520999999999999</c:v>
+                  <c:v>0.97507999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94933000000000001</c:v>
+                  <c:v>0.97282999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.94825999999999999</c:v>
+                  <c:v>0.97202999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.94623999999999997</c:v>
+                  <c:v>0.96543000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94604999999999995</c:v>
+                  <c:v>0.96453999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.94611000000000001</c:v>
+                  <c:v>0.96835000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94320999999999999</c:v>
+                  <c:v>0.96721999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94027000000000005</c:v>
+                  <c:v>0.96672000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.93801999999999996</c:v>
+                  <c:v>0.96858</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.93708000000000002</c:v>
+                  <c:v>0.96753999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93652999999999997</c:v>
+                  <c:v>0.96555999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94852000000000003</c:v>
+                  <c:v>0.96536999999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.94742999999999999</c:v>
+                  <c:v>0.96543000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.94726999999999995</c:v>
+                  <c:v>0.97538000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.94311999999999996</c:v>
+                  <c:v>0.97535000000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.94013000000000002</c:v>
+                  <c:v>0.96258999999999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.93906000000000001</c:v>
+                  <c:v>0.95970999999999995</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.95464000000000004</c:v>
+                  <c:v>0.95750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.95376000000000005</c:v>
+                  <c:v>0.95659000000000005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.95147000000000004</c:v>
+                  <c:v>0.95604999999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.95065</c:v>
+                  <c:v>0.96238000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.94689000000000001</c:v>
+                  <c:v>0.96175999999999995</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.94572999999999996</c:v>
+                  <c:v>0.96021000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.94521999999999995</c:v>
+                  <c:v>0.96779000000000004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.95408000000000004</c:v>
+                  <c:v>0.96672000000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.95404999999999995</c:v>
+                  <c:v>0.96655999999999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94077999999999995</c:v>
+                  <c:v>0.97594999999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.94013999999999998</c:v>
+                  <c:v>0.96250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.93855999999999995</c:v>
+                  <c:v>0.95957000000000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.95465999999999995</c:v>
+                  <c:v>0.95852000000000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.95187999999999995</c:v>
+                  <c:v>0.97323000000000004</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.95184000000000002</c:v>
+                  <c:v>0.97319999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5115,121 +5120,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.95530999999999999</c:v>
+                  <c:v>0.97667000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95101000000000002</c:v>
+                  <c:v>0.97036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94581999999999999</c:v>
+                  <c:v>0.96526999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94191000000000003</c:v>
+                  <c:v>0.96145000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93930999999999998</c:v>
+                  <c:v>0.95889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93801000000000001</c:v>
+                  <c:v>0.95762000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94699</c:v>
+                  <c:v>0.97645999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94615000000000005</c:v>
+                  <c:v>0.97568999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94994999999999996</c:v>
+                  <c:v>0.97363999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.94908000000000003</c:v>
+                  <c:v>0.97287000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.94760999999999995</c:v>
+                  <c:v>0.96640999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94791000000000003</c:v>
+                  <c:v>0.96558999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.94803999999999999</c:v>
+                  <c:v>0.96909000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94440999999999997</c:v>
+                  <c:v>0.96799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94174000000000002</c:v>
+                  <c:v>0.96753</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.93974000000000002</c:v>
+                  <c:v>0.96931</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.93891000000000002</c:v>
+                  <c:v>0.96847000000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93840999999999997</c:v>
+                  <c:v>0.96701999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94913999999999998</c:v>
+                  <c:v>0.96731999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.94818999999999998</c:v>
+                  <c:v>0.96745000000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.94803999999999999</c:v>
+                  <c:v>0.97601000000000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.94411</c:v>
+                  <c:v>0.97604000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.94130000000000003</c:v>
+                  <c:v>0.96389000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.94030000000000002</c:v>
+                  <c:v>0.96126999999999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.95508999999999999</c:v>
+                  <c:v>0.95931999999999995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.95430999999999999</c:v>
+                  <c:v>0.95850000000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.95221</c:v>
+                  <c:v>0.95801000000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.95143</c:v>
+                  <c:v>0.96348999999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.94755999999999996</c:v>
+                  <c:v>0.96289999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.94643999999999995</c:v>
+                  <c:v>0.96143000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.94596000000000002</c:v>
+                  <c:v>0.96853</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.95464000000000004</c:v>
+                  <c:v>0.96758999999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.95467000000000002</c:v>
+                  <c:v>0.96745000000000003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94181999999999999</c:v>
+                  <c:v>0.97652000000000005</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.94121999999999995</c:v>
+                  <c:v>0.96358999999999995</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.93972</c:v>
+                  <c:v>0.96084999999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.95516000000000001</c:v>
+                  <c:v>0.95987</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.95262000000000002</c:v>
+                  <c:v>0.97404000000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.95259000000000005</c:v>
+                  <c:v>0.97401000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5286,121 +5291,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.95572999999999997</c:v>
+                  <c:v>0.97714999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95150999999999997</c:v>
+                  <c:v>0.97096000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94659000000000004</c:v>
+                  <c:v>0.96614</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94289000000000001</c:v>
+                  <c:v>0.96252000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94042999999999999</c:v>
+                  <c:v>0.96009999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93918999999999997</c:v>
+                  <c:v>0.95889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94784999999999997</c:v>
+                  <c:v>0.97696000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94706999999999997</c:v>
+                  <c:v>0.97628000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95055000000000001</c:v>
+                  <c:v>0.97443000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.94987999999999995</c:v>
+                  <c:v>0.97369000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.94894999999999996</c:v>
+                  <c:v>0.96736999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94974999999999998</c:v>
+                  <c:v>0.96660999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.94994999999999996</c:v>
+                  <c:v>0.96980999999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94559000000000004</c:v>
+                  <c:v>0.96875999999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94318999999999997</c:v>
+                  <c:v>0.96831999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.94144000000000005</c:v>
+                  <c:v>0.97001999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.94071000000000005</c:v>
+                  <c:v>0.96936</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.94025000000000003</c:v>
+                  <c:v>0.96845000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94974000000000003</c:v>
+                  <c:v>0.96923000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.94891999999999999</c:v>
+                  <c:v>0.96943000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.94879999999999998</c:v>
+                  <c:v>0.97662000000000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.94508000000000003</c:v>
+                  <c:v>0.97672000000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.94245999999999996</c:v>
+                  <c:v>0.96516000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.94152999999999998</c:v>
+                  <c:v>0.96281000000000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.95553999999999994</c:v>
+                  <c:v>0.96109999999999995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.95484000000000002</c:v>
+                  <c:v>0.96038000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.95294000000000001</c:v>
+                  <c:v>0.95992999999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.95218999999999998</c:v>
+                  <c:v>0.96457000000000004</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.94821999999999995</c:v>
+                  <c:v>0.96401999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.94713999999999998</c:v>
+                  <c:v>0.96262999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.94669999999999999</c:v>
+                  <c:v>0.96923000000000004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.95518000000000003</c:v>
+                  <c:v>0.96841999999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.95528000000000002</c:v>
+                  <c:v>0.96831</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94284999999999997</c:v>
+                  <c:v>0.97706000000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.94228999999999996</c:v>
+                  <c:v>0.96465999999999996</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.94086999999999998</c:v>
+                  <c:v>0.96209999999999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.95564000000000004</c:v>
+                  <c:v>0.96118000000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.95335000000000003</c:v>
+                  <c:v>0.97482999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.95333000000000001</c:v>
+                  <c:v>0.97480999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5457,121 +5462,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.95613000000000004</c:v>
+                  <c:v>0.97760999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>0.97153999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94735000000000003</c:v>
+                  <c:v>0.96697999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94386000000000003</c:v>
+                  <c:v>0.96355999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94152999999999998</c:v>
+                  <c:v>0.96128000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94035999999999997</c:v>
+                  <c:v>0.96013999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94869999999999999</c:v>
+                  <c:v>0.97745000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94799</c:v>
+                  <c:v>0.97685999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95113000000000003</c:v>
+                  <c:v>0.97519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95067000000000002</c:v>
+                  <c:v>0.97450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.95028000000000001</c:v>
+                  <c:v>0.96830000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.95157000000000003</c:v>
+                  <c:v>0.96760999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.95182999999999995</c:v>
+                  <c:v>0.97052000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94674999999999998</c:v>
+                  <c:v>0.96950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94462000000000002</c:v>
+                  <c:v>0.96909999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.94313000000000002</c:v>
+                  <c:v>0.97069000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.9425</c:v>
+                  <c:v>0.97023000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.94208000000000003</c:v>
+                  <c:v>0.96986000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.95033000000000001</c:v>
+                  <c:v>0.97111999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.94964000000000004</c:v>
+                  <c:v>0.97138000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.94955000000000001</c:v>
+                  <c:v>0.97721000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.94603000000000004</c:v>
+                  <c:v>0.97736999999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.94360999999999995</c:v>
+                  <c:v>0.96640000000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.94274000000000002</c:v>
+                  <c:v>0.96431</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.95596999999999999</c:v>
+                  <c:v>0.96284999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.95535999999999999</c:v>
+                  <c:v>0.96223000000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.95367000000000002</c:v>
+                  <c:v>0.96182999999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.95294999999999996</c:v>
+                  <c:v>0.96562999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.94886999999999999</c:v>
+                  <c:v>0.96511000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.94784000000000002</c:v>
+                  <c:v>0.96380999999999994</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.94742000000000004</c:v>
+                  <c:v>0.96989999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.95572000000000001</c:v>
+                  <c:v>0.96923000000000004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.95589000000000002</c:v>
+                  <c:v>0.96914</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94388000000000005</c:v>
+                  <c:v>0.97758999999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.94335000000000002</c:v>
+                  <c:v>0.96569000000000005</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.94201000000000001</c:v>
+                  <c:v>0.96331999999999995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.95611000000000002</c:v>
+                  <c:v>0.96247000000000005</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.95408000000000004</c:v>
+                  <c:v>0.97560999999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.95406000000000002</c:v>
+                  <c:v>0.97558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5634,121 +5639,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.95652999999999999</c:v>
+                  <c:v>0.97806000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95245999999999997</c:v>
+                  <c:v>0.97209000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94808999999999999</c:v>
+                  <c:v>0.96779999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94479999999999997</c:v>
+                  <c:v>0.96457000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94259999999999999</c:v>
+                  <c:v>0.96243000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94150999999999996</c:v>
+                  <c:v>0.96135000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94952000000000003</c:v>
+                  <c:v>0.97792999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94886999999999999</c:v>
+                  <c:v>0.97741999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95169999999999999</c:v>
+                  <c:v>0.97596000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95143</c:v>
+                  <c:v>0.97528999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.95159000000000005</c:v>
+                  <c:v>0.96919999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.95335999999999999</c:v>
+                  <c:v>0.96857000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.95369000000000004</c:v>
+                  <c:v>0.97119999999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94789000000000001</c:v>
+                  <c:v>0.97023000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94603000000000004</c:v>
+                  <c:v>0.96984999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.94477999999999995</c:v>
+                  <c:v>0.97133999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.94425999999999999</c:v>
+                  <c:v>0.97106999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.94389000000000001</c:v>
+                  <c:v>0.97123000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.95089999999999997</c:v>
+                  <c:v>0.97297</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.95033999999999996</c:v>
+                  <c:v>0.97328999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.95026999999999995</c:v>
+                  <c:v>0.97779000000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.94696000000000002</c:v>
+                  <c:v>0.97801000000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.94472999999999996</c:v>
+                  <c:v>0.96760000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.94393000000000005</c:v>
+                  <c:v>0.96577999999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.95638999999999996</c:v>
+                  <c:v>0.96455999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.95587</c:v>
+                  <c:v>0.96404000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.95437000000000005</c:v>
+                  <c:v>0.96367999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.95369000000000004</c:v>
+                  <c:v>0.96667999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.94950999999999997</c:v>
+                  <c:v>0.96618999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.94852000000000003</c:v>
+                  <c:v>0.96496999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.94813000000000003</c:v>
+                  <c:v>0.97055000000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.95625000000000004</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.95648</c:v>
+                  <c:v>0.96994000000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94488000000000005</c:v>
+                  <c:v>0.97809999999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.94438999999999995</c:v>
+                  <c:v>0.96669000000000005</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.94313999999999998</c:v>
+                  <c:v>0.96450000000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.95657000000000003</c:v>
+                  <c:v>0.96372000000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.95479000000000003</c:v>
+                  <c:v>0.97636000000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.95477000000000001</c:v>
+                  <c:v>0.97633999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5769,7 +5774,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Upper</c:v>
+                  <c:v>Upper Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5930,7 +5935,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lower</c:v>
+                  <c:v>Lower Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6542,10 +6547,10 @@
               <c:strCache>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>1B</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -6668,121 +6673,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.95443999999999996</c:v>
+                  <c:v>0.97565000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94996000000000003</c:v>
+                  <c:v>0.96906000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94421999999999995</c:v>
+                  <c:v>0.96343000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93989999999999996</c:v>
+                  <c:v>0.95921000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93701999999999996</c:v>
+                  <c:v>0.95638999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93557999999999997</c:v>
+                  <c:v>0.95498000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94520999999999999</c:v>
+                  <c:v>0.97538999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94423999999999997</c:v>
+                  <c:v>0.97443999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94869000000000003</c:v>
+                  <c:v>0.97201000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.94742999999999999</c:v>
+                  <c:v>0.97116999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.94486000000000003</c:v>
+                  <c:v>0.96440999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94416</c:v>
+                  <c:v>0.96345999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.94416</c:v>
+                  <c:v>0.96760000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94198999999999999</c:v>
+                  <c:v>0.96641999999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.93877999999999995</c:v>
+                  <c:v>0.96589000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.93627000000000005</c:v>
+                  <c:v>0.96782000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.93523000000000001</c:v>
+                  <c:v>0.96657999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93464000000000003</c:v>
+                  <c:v>0.96406000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94789000000000001</c:v>
+                  <c:v>0.96338000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.94665999999999995</c:v>
+                  <c:v>0.96338000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.94647000000000003</c:v>
+                  <c:v>0.97474000000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.94211</c:v>
+                  <c:v>0.97463999999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.93893000000000004</c:v>
+                  <c:v>0.96126</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.93779000000000001</c:v>
+                  <c:v>0.95811000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.95416999999999996</c:v>
+                  <c:v>0.95565</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.95321</c:v>
+                  <c:v>0.95462999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.95072000000000001</c:v>
+                  <c:v>0.95404999999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.94986000000000004</c:v>
+                  <c:v>0.96126</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.94620000000000004</c:v>
+                  <c:v>0.96060999999999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.94501000000000002</c:v>
+                  <c:v>0.95896999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.94445999999999997</c:v>
+                  <c:v>0.96702999999999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.95350999999999997</c:v>
+                  <c:v>0.96582999999999997</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.95340999999999998</c:v>
+                  <c:v>0.96564000000000005</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.93972</c:v>
+                  <c:v>0.97536999999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.93905000000000005</c:v>
+                  <c:v>0.96136999999999995</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.93737999999999999</c:v>
+                  <c:v>0.95825000000000005</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.95416000000000001</c:v>
+                  <c:v>0.95713999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.95111999999999997</c:v>
+                  <c:v>0.97240000000000004</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.95108000000000004</c:v>
+                  <c:v>0.97236999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6838,10 +6843,10 @@
               <c:strCache>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>1B</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -6964,121 +6969,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.95487999999999995</c:v>
+                  <c:v>0.97616999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95048999999999995</c:v>
+                  <c:v>0.96972000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94501999999999997</c:v>
+                  <c:v>0.96436999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94091999999999998</c:v>
+                  <c:v>0.96033999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93818000000000001</c:v>
+                  <c:v>0.95765999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93681000000000003</c:v>
+                  <c:v>0.95631999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94611000000000001</c:v>
+                  <c:v>0.97592999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94520999999999999</c:v>
+                  <c:v>0.97507999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94933000000000001</c:v>
+                  <c:v>0.97282999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.94825999999999999</c:v>
+                  <c:v>0.97202999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.94623999999999997</c:v>
+                  <c:v>0.96543000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94604999999999995</c:v>
+                  <c:v>0.96453999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.94611000000000001</c:v>
+                  <c:v>0.96835000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94320999999999999</c:v>
+                  <c:v>0.96721999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94027000000000005</c:v>
+                  <c:v>0.96672000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.93801999999999996</c:v>
+                  <c:v>0.96858</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.93708000000000002</c:v>
+                  <c:v>0.96753999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93652999999999997</c:v>
+                  <c:v>0.96555999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94852000000000003</c:v>
+                  <c:v>0.96536999999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.94742999999999999</c:v>
+                  <c:v>0.96543000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.94726999999999995</c:v>
+                  <c:v>0.97538000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.94311999999999996</c:v>
+                  <c:v>0.97535000000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.94013000000000002</c:v>
+                  <c:v>0.96258999999999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.93906000000000001</c:v>
+                  <c:v>0.95970999999999995</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.95464000000000004</c:v>
+                  <c:v>0.95750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.95376000000000005</c:v>
+                  <c:v>0.95659000000000005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.95147000000000004</c:v>
+                  <c:v>0.95604999999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.95065</c:v>
+                  <c:v>0.96238000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.94689000000000001</c:v>
+                  <c:v>0.96175999999999995</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.94572999999999996</c:v>
+                  <c:v>0.96021000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.94521999999999995</c:v>
+                  <c:v>0.96779000000000004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.95408000000000004</c:v>
+                  <c:v>0.96672000000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.95404999999999995</c:v>
+                  <c:v>0.96655999999999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94077999999999995</c:v>
+                  <c:v>0.97594999999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.94013999999999998</c:v>
+                  <c:v>0.96250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.93855999999999995</c:v>
+                  <c:v>0.95957000000000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.95465999999999995</c:v>
+                  <c:v>0.95852000000000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.95187999999999995</c:v>
+                  <c:v>0.97323000000000004</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.95184000000000002</c:v>
+                  <c:v>0.97319999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7134,10 +7139,10 @@
               <c:strCache>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>1B</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -7260,121 +7265,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.95530999999999999</c:v>
+                  <c:v>0.97667000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95101000000000002</c:v>
+                  <c:v>0.97036</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94581999999999999</c:v>
+                  <c:v>0.96526999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94191000000000003</c:v>
+                  <c:v>0.96145000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93930999999999998</c:v>
+                  <c:v>0.95889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93801000000000001</c:v>
+                  <c:v>0.95762000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94699</c:v>
+                  <c:v>0.97645999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94615000000000005</c:v>
+                  <c:v>0.97568999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94994999999999996</c:v>
+                  <c:v>0.97363999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.94908000000000003</c:v>
+                  <c:v>0.97287000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.94760999999999995</c:v>
+                  <c:v>0.96640999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94791000000000003</c:v>
+                  <c:v>0.96558999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.94803999999999999</c:v>
+                  <c:v>0.96909000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94440999999999997</c:v>
+                  <c:v>0.96799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94174000000000002</c:v>
+                  <c:v>0.96753</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.93974000000000002</c:v>
+                  <c:v>0.96931</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.93891000000000002</c:v>
+                  <c:v>0.96847000000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93840999999999997</c:v>
+                  <c:v>0.96701999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94913999999999998</c:v>
+                  <c:v>0.96731999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.94818999999999998</c:v>
+                  <c:v>0.96745000000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.94803999999999999</c:v>
+                  <c:v>0.97601000000000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.94411</c:v>
+                  <c:v>0.97604000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.94130000000000003</c:v>
+                  <c:v>0.96389000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.94030000000000002</c:v>
+                  <c:v>0.96126999999999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.95508999999999999</c:v>
+                  <c:v>0.95931999999999995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.95430999999999999</c:v>
+                  <c:v>0.95850000000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.95221</c:v>
+                  <c:v>0.95801000000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.95143</c:v>
+                  <c:v>0.96348999999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.94755999999999996</c:v>
+                  <c:v>0.96289999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.94643999999999995</c:v>
+                  <c:v>0.96143000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.94596000000000002</c:v>
+                  <c:v>0.96853</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.95464000000000004</c:v>
+                  <c:v>0.96758999999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.95467000000000002</c:v>
+                  <c:v>0.96745000000000003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94181999999999999</c:v>
+                  <c:v>0.97652000000000005</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.94121999999999995</c:v>
+                  <c:v>0.96358999999999995</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.93972</c:v>
+                  <c:v>0.96084999999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.95516000000000001</c:v>
+                  <c:v>0.95987</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.95262000000000002</c:v>
+                  <c:v>0.97404000000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.95259000000000005</c:v>
+                  <c:v>0.97401000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7430,10 +7435,10 @@
               <c:strCache>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>1B</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -7556,121 +7561,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.95572999999999997</c:v>
+                  <c:v>0.97714999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95150999999999997</c:v>
+                  <c:v>0.97096000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94659000000000004</c:v>
+                  <c:v>0.96614</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94289000000000001</c:v>
+                  <c:v>0.96252000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94042999999999999</c:v>
+                  <c:v>0.96009999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93918999999999997</c:v>
+                  <c:v>0.95889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94784999999999997</c:v>
+                  <c:v>0.97696000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94706999999999997</c:v>
+                  <c:v>0.97628000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95055000000000001</c:v>
+                  <c:v>0.97443000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.94987999999999995</c:v>
+                  <c:v>0.97369000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.94894999999999996</c:v>
+                  <c:v>0.96736999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94974999999999998</c:v>
+                  <c:v>0.96660999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.94994999999999996</c:v>
+                  <c:v>0.96980999999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94559000000000004</c:v>
+                  <c:v>0.96875999999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94318999999999997</c:v>
+                  <c:v>0.96831999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.94144000000000005</c:v>
+                  <c:v>0.97001999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.94071000000000005</c:v>
+                  <c:v>0.96936</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.94025000000000003</c:v>
+                  <c:v>0.96845000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94974000000000003</c:v>
+                  <c:v>0.96923000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.94891999999999999</c:v>
+                  <c:v>0.96943000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.94879999999999998</c:v>
+                  <c:v>0.97662000000000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.94508000000000003</c:v>
+                  <c:v>0.97672000000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.94245999999999996</c:v>
+                  <c:v>0.96516000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.94152999999999998</c:v>
+                  <c:v>0.96281000000000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.95553999999999994</c:v>
+                  <c:v>0.96109999999999995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.95484000000000002</c:v>
+                  <c:v>0.96038000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.95294000000000001</c:v>
+                  <c:v>0.95992999999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.95218999999999998</c:v>
+                  <c:v>0.96457000000000004</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.94821999999999995</c:v>
+                  <c:v>0.96401999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.94713999999999998</c:v>
+                  <c:v>0.96262999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.94669999999999999</c:v>
+                  <c:v>0.96923000000000004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.95518000000000003</c:v>
+                  <c:v>0.96841999999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.95528000000000002</c:v>
+                  <c:v>0.96831</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94284999999999997</c:v>
+                  <c:v>0.97706000000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.94228999999999996</c:v>
+                  <c:v>0.96465999999999996</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.94086999999999998</c:v>
+                  <c:v>0.96209999999999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.95564000000000004</c:v>
+                  <c:v>0.96118000000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.95335000000000003</c:v>
+                  <c:v>0.97482999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.95333000000000001</c:v>
+                  <c:v>0.97480999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7726,10 +7731,10 @@
               <c:strCache>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>1B</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -7852,121 +7857,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.95613000000000004</c:v>
+                  <c:v>0.97760999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>0.97153999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94735000000000003</c:v>
+                  <c:v>0.96697999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94386000000000003</c:v>
+                  <c:v>0.96355999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94152999999999998</c:v>
+                  <c:v>0.96128000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94035999999999997</c:v>
+                  <c:v>0.96013999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94869999999999999</c:v>
+                  <c:v>0.97745000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94799</c:v>
+                  <c:v>0.97685999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95113000000000003</c:v>
+                  <c:v>0.97519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95067000000000002</c:v>
+                  <c:v>0.97450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.95028000000000001</c:v>
+                  <c:v>0.96830000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.95157000000000003</c:v>
+                  <c:v>0.96760999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.95182999999999995</c:v>
+                  <c:v>0.97052000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94674999999999998</c:v>
+                  <c:v>0.96950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94462000000000002</c:v>
+                  <c:v>0.96909999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.94313000000000002</c:v>
+                  <c:v>0.97069000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.9425</c:v>
+                  <c:v>0.97023000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.94208000000000003</c:v>
+                  <c:v>0.96986000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.95033000000000001</c:v>
+                  <c:v>0.97111999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.94964000000000004</c:v>
+                  <c:v>0.97138000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.94955000000000001</c:v>
+                  <c:v>0.97721000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.94603000000000004</c:v>
+                  <c:v>0.97736999999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.94360999999999995</c:v>
+                  <c:v>0.96640000000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.94274000000000002</c:v>
+                  <c:v>0.96431</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.95596999999999999</c:v>
+                  <c:v>0.96284999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.95535999999999999</c:v>
+                  <c:v>0.96223000000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.95367000000000002</c:v>
+                  <c:v>0.96182999999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.95294999999999996</c:v>
+                  <c:v>0.96562999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.94886999999999999</c:v>
+                  <c:v>0.96511000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.94784000000000002</c:v>
+                  <c:v>0.96380999999999994</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.94742000000000004</c:v>
+                  <c:v>0.96989999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.95572000000000001</c:v>
+                  <c:v>0.96923000000000004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.95589000000000002</c:v>
+                  <c:v>0.96914</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94388000000000005</c:v>
+                  <c:v>0.97758999999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.94335000000000002</c:v>
+                  <c:v>0.96569000000000005</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.94201000000000001</c:v>
+                  <c:v>0.96331999999999995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.95611000000000002</c:v>
+                  <c:v>0.96247000000000005</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.95408000000000004</c:v>
+                  <c:v>0.97560999999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.95406000000000002</c:v>
+                  <c:v>0.97558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8028,10 +8033,10 @@
               <c:strCache>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>1B</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -8154,121 +8159,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.95652999999999999</c:v>
+                  <c:v>0.97806000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95245999999999997</c:v>
+                  <c:v>0.97209000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94808999999999999</c:v>
+                  <c:v>0.96779999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94479999999999997</c:v>
+                  <c:v>0.96457000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.94259999999999999</c:v>
+                  <c:v>0.96243000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94150999999999996</c:v>
+                  <c:v>0.96135000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94952000000000003</c:v>
+                  <c:v>0.97792999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.94886999999999999</c:v>
+                  <c:v>0.97741999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95169999999999999</c:v>
+                  <c:v>0.97596000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95143</c:v>
+                  <c:v>0.97528999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.95159000000000005</c:v>
+                  <c:v>0.96919999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.95335999999999999</c:v>
+                  <c:v>0.96857000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.95369000000000004</c:v>
+                  <c:v>0.97119999999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.94789000000000001</c:v>
+                  <c:v>0.97023000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94603000000000004</c:v>
+                  <c:v>0.96984999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.94477999999999995</c:v>
+                  <c:v>0.97133999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.94425999999999999</c:v>
+                  <c:v>0.97106999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.94389000000000001</c:v>
+                  <c:v>0.97123000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.95089999999999997</c:v>
+                  <c:v>0.97297</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.95033999999999996</c:v>
+                  <c:v>0.97328999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.95026999999999995</c:v>
+                  <c:v>0.97779000000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.94696000000000002</c:v>
+                  <c:v>0.97801000000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.94472999999999996</c:v>
+                  <c:v>0.96760000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.94393000000000005</c:v>
+                  <c:v>0.96577999999999997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.95638999999999996</c:v>
+                  <c:v>0.96455999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.95587</c:v>
+                  <c:v>0.96404000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.95437000000000005</c:v>
+                  <c:v>0.96367999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.95369000000000004</c:v>
+                  <c:v>0.96667999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.94950999999999997</c:v>
+                  <c:v>0.96618999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.94852000000000003</c:v>
+                  <c:v>0.96496999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.94813000000000003</c:v>
+                  <c:v>0.97055000000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.95625000000000004</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.95648</c:v>
+                  <c:v>0.96994000000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94488000000000005</c:v>
+                  <c:v>0.97809999999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.94438999999999995</c:v>
+                  <c:v>0.96669000000000005</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.94313999999999998</c:v>
+                  <c:v>0.96450000000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.95657000000000003</c:v>
+                  <c:v>0.96372000000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.95479000000000003</c:v>
+                  <c:v>0.97636000000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.95477000000000001</c:v>
+                  <c:v>0.97633999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8289,7 +8294,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Upper</c:v>
+                  <c:v>Upper Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8314,10 +8319,10 @@
               <c:strCache>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>1B</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -8575,7 +8580,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lower</c:v>
+                  <c:v>Lower Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8600,10 +8605,10 @@
               <c:strCache>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>B</c:v>
+                  <c:v>1B</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -9003,7 +9008,7 @@
         <c:axId val="1550041711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.92"/>
+          <c:min val="0.94000000000000006"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9334,118 +9339,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0.92517000000000005</c:v>
+                  <c:v>0.95006000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91940999999999995</c:v>
+                  <c:v>0.94432000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91510000000000002</c:v>
+                  <c:v>0.94001000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91222999999999999</c:v>
+                  <c:v>0.93713999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91080000000000005</c:v>
+                  <c:v>0.93569999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92488999999999999</c:v>
+                  <c:v>0.94979000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92390000000000005</c:v>
+                  <c:v>0.94882</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92135</c:v>
+                  <c:v>0.94632000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92047999999999996</c:v>
+                  <c:v>0.94545999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92034000000000005</c:v>
+                  <c:v>0.94532000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91935999999999996</c:v>
+                  <c:v>0.94435000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91683000000000003</c:v>
+                  <c:v>0.94179000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91561999999999999</c:v>
+                  <c:v>0.94057999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91507000000000005</c:v>
+                  <c:v>0.94003999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92386999999999997</c:v>
+                  <c:v>0.94879999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92259000000000002</c:v>
+                  <c:v>0.94754000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.91996999999999995</c:v>
+                  <c:v>0.94496000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.91927000000000003</c:v>
+                  <c:v>0.94427000000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.91927000000000003</c:v>
+                  <c:v>0.94427000000000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92420000000000002</c:v>
+                  <c:v>0.94911999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92410000000000003</c:v>
+                  <c:v>0.94903000000000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.91720999999999997</c:v>
+                  <c:v>0.94210000000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.91400999999999999</c:v>
+                  <c:v>0.93889</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91152</c:v>
+                  <c:v>0.93637999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.91049000000000002</c:v>
+                  <c:v>0.93533999999999995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.90990000000000004</c:v>
+                  <c:v>0.93474999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91049000000000002</c:v>
+                  <c:v>0.93527000000000005</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.90983000000000003</c:v>
+                  <c:v>0.93459999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.90817000000000003</c:v>
+                  <c:v>0.93291999999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.92305000000000004</c:v>
+                  <c:v>0.94799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.92179999999999995</c:v>
+                  <c:v>0.94677</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.92161000000000004</c:v>
+                  <c:v>0.94657999999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.92486999999999997</c:v>
+                  <c:v>0.94977999999999996</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.91729000000000005</c:v>
+                  <c:v>0.94221999999999995</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.91410000000000002</c:v>
+                  <c:v>0.93903999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.91296999999999995</c:v>
+                  <c:v>0.93789999999999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.92176000000000002</c:v>
+                  <c:v>0.94672000000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.92171999999999998</c:v>
+                  <c:v>0.94669000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9502,118 +9507,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0.92617000000000005</c:v>
+                  <c:v>0.95126999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92068000000000005</c:v>
+                  <c:v>0.94581000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91657</c:v>
+                  <c:v>0.94171000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91383000000000003</c:v>
+                  <c:v>0.93896999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91246000000000005</c:v>
+                  <c:v>0.93759999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92591999999999997</c:v>
+                  <c:v>0.95103000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92501999999999995</c:v>
+                  <c:v>0.95015000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92267999999999994</c:v>
+                  <c:v>0.94784999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92183999999999999</c:v>
+                  <c:v>0.94703000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92171000000000003</c:v>
+                  <c:v>0.94689000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92079</c:v>
+                  <c:v>0.94599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91807000000000005</c:v>
+                  <c:v>0.94325000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91690000000000005</c:v>
+                  <c:v>0.94208000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91637999999999997</c:v>
+                  <c:v>0.94157000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92498000000000002</c:v>
+                  <c:v>0.95011000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92388999999999999</c:v>
+                  <c:v>0.94904999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92183000000000004</c:v>
+                  <c:v>0.94701999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.92164000000000001</c:v>
+                  <c:v>0.94682999999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.92171000000000003</c:v>
+                  <c:v>0.94689999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92534000000000005</c:v>
+                  <c:v>0.95045999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92530999999999997</c:v>
+                  <c:v>0.95043</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.91888999999999998</c:v>
+                  <c:v>0.94399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.91595000000000004</c:v>
+                  <c:v>0.94106000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91369999999999996</c:v>
+                  <c:v>0.93881000000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.91276999999999997</c:v>
+                  <c:v>0.93786999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.91222999999999999</c:v>
+                  <c:v>0.93733</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91208999999999996</c:v>
+                  <c:v>0.93711</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.91146000000000005</c:v>
+                  <c:v>0.93647999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.90988000000000002</c:v>
+                  <c:v>0.93488000000000004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.92415000000000003</c:v>
+                  <c:v>0.94930000000000003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.92303999999999997</c:v>
+                  <c:v>0.94821999999999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.92286999999999997</c:v>
+                  <c:v>0.94804999999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.92593999999999999</c:v>
+                  <c:v>0.95104999999999995</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.91876000000000002</c:v>
+                  <c:v>0.94391000000000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.91574999999999995</c:v>
+                  <c:v>0.94091000000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.91468000000000005</c:v>
+                  <c:v>0.93984999999999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.92308000000000001</c:v>
+                  <c:v>0.94825000000000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.92305000000000004</c:v>
+                  <c:v>0.94821999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9670,118 +9675,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0.92713000000000001</c:v>
+                  <c:v>0.95240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92188999999999999</c:v>
+                  <c:v>0.94721999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91798000000000002</c:v>
+                  <c:v>0.94332000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91537999999999997</c:v>
+                  <c:v>0.94072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91408</c:v>
+                  <c:v>0.93942000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92689999999999995</c:v>
+                  <c:v>0.95218999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92610000000000003</c:v>
+                  <c:v>0.95140000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92395000000000005</c:v>
+                  <c:v>0.94930000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92313999999999996</c:v>
+                  <c:v>0.94850999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92301999999999995</c:v>
+                  <c:v>0.94838999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92217000000000005</c:v>
+                  <c:v>0.94755</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91925999999999997</c:v>
+                  <c:v>0.94462999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91813</c:v>
+                  <c:v>0.94350999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91764000000000001</c:v>
+                  <c:v>0.94303000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92603000000000002</c:v>
+                  <c:v>0.95133999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92515000000000003</c:v>
+                  <c:v>0.95047999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92364000000000002</c:v>
+                  <c:v>0.94901000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.92395000000000005</c:v>
+                  <c:v>0.94930999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.92408999999999997</c:v>
+                  <c:v>0.94943999999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92642999999999998</c:v>
+                  <c:v>0.95172999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92647000000000002</c:v>
+                  <c:v>0.95176000000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.92051000000000005</c:v>
+                  <c:v>0.94581999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.91783000000000003</c:v>
+                  <c:v>0.94315000000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91583999999999999</c:v>
+                  <c:v>0.94115000000000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.91500999999999999</c:v>
+                  <c:v>0.94032000000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.91449999999999998</c:v>
+                  <c:v>0.93981999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91363000000000005</c:v>
+                  <c:v>0.93888000000000005</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.91303999999999996</c:v>
+                  <c:v>0.93827000000000005</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.91154000000000002</c:v>
+                  <c:v>0.93676999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.92520999999999998</c:v>
+                  <c:v>0.95054000000000005</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.92423</c:v>
+                  <c:v>0.94957999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.92408000000000001</c:v>
+                  <c:v>0.94943999999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.92696999999999996</c:v>
+                  <c:v>0.95225000000000004</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.92017000000000004</c:v>
+                  <c:v>0.94550999999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.91735</c:v>
+                  <c:v>0.94271000000000005</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.91634000000000004</c:v>
+                  <c:v>0.94171000000000005</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.92435999999999996</c:v>
+                  <c:v>0.94971000000000005</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.92432999999999998</c:v>
+                  <c:v>0.94967999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9838,118 +9843,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0.92803000000000002</c:v>
+                  <c:v>0.95347000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92306999999999995</c:v>
+                  <c:v>0.94855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91935</c:v>
+                  <c:v>0.94486999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91688000000000003</c:v>
+                  <c:v>0.94240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91564000000000001</c:v>
+                  <c:v>0.94116999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92784</c:v>
+                  <c:v>0.95328000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92712000000000006</c:v>
+                  <c:v>0.95257999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92517000000000005</c:v>
+                  <c:v>0.95067999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9244</c:v>
+                  <c:v>0.94993000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92428999999999994</c:v>
+                  <c:v>0.94981000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92349999999999999</c:v>
+                  <c:v>0.94903999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9204</c:v>
+                  <c:v>0.94594</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91930999999999996</c:v>
+                  <c:v>0.94486000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91884999999999994</c:v>
+                  <c:v>0.94442000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92705000000000004</c:v>
+                  <c:v>0.95250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92635999999999996</c:v>
+                  <c:v>0.95184000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92540999999999995</c:v>
+                  <c:v>0.95091000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.92623</c:v>
+                  <c:v>0.95170999999999994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.92642999999999998</c:v>
+                  <c:v>0.95189999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92747999999999997</c:v>
+                  <c:v>0.95291999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92757999999999996</c:v>
+                  <c:v>0.95301999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.92206999999999995</c:v>
+                  <c:v>0.94755999999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.91966000000000003</c:v>
+                  <c:v>0.94516</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91791999999999996</c:v>
+                  <c:v>0.94342000000000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.91718999999999995</c:v>
+                  <c:v>0.94269000000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.91673000000000004</c:v>
+                  <c:v>0.94223000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91513</c:v>
+                  <c:v>0.94055999999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.91456999999999999</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.91315000000000002</c:v>
+                  <c:v>0.93857999999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.92622000000000004</c:v>
+                  <c:v>0.95169999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.92537999999999998</c:v>
+                  <c:v>0.95087999999999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.92525999999999997</c:v>
+                  <c:v>0.95076000000000005</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.92793999999999999</c:v>
+                  <c:v>0.95338000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.92152999999999996</c:v>
+                  <c:v>0.94704999999999995</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.91890000000000005</c:v>
+                  <c:v>0.94443999999999995</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.91796</c:v>
+                  <c:v>0.94350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.92559000000000002</c:v>
+                  <c:v>0.95108999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.92557</c:v>
+                  <c:v>0.95106999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10006,118 +10011,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0.92889999999999995</c:v>
+                  <c:v>0.95445999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92418999999999996</c:v>
+                  <c:v>0.94982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92066999999999999</c:v>
+                  <c:v>0.94633999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91832999999999998</c:v>
+                  <c:v>0.94401000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91715999999999998</c:v>
+                  <c:v>0.94284999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92873000000000006</c:v>
+                  <c:v>0.95428999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92810000000000004</c:v>
+                  <c:v>0.95369000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92635999999999996</c:v>
+                  <c:v>0.95199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92562</c:v>
+                  <c:v>0.95126999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92551000000000005</c:v>
+                  <c:v>0.95116999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92478000000000005</c:v>
+                  <c:v>0.95045000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.92149999999999999</c:v>
+                  <c:v>0.94718000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.92044000000000004</c:v>
+                  <c:v>0.94615000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92001999999999995</c:v>
+                  <c:v>0.94572999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92801</c:v>
+                  <c:v>0.95359000000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92752999999999997</c:v>
+                  <c:v>0.95313000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92713999999999996</c:v>
+                  <c:v>0.95274000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.92845999999999995</c:v>
+                  <c:v>0.95403000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.92873000000000006</c:v>
+                  <c:v>0.95428999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92847000000000002</c:v>
+                  <c:v>0.95404999999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92864000000000002</c:v>
+                  <c:v>0.95421</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.92359000000000002</c:v>
+                  <c:v>0.94921999999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.92144000000000004</c:v>
+                  <c:v>0.94710000000000005</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91995000000000005</c:v>
+                  <c:v>0.94560999999999995</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.91932000000000003</c:v>
+                  <c:v>0.94498000000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.91890000000000005</c:v>
+                  <c:v>0.94457000000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91657999999999995</c:v>
+                  <c:v>0.94218000000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.91605000000000003</c:v>
+                  <c:v>0.94164999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.91471999999999998</c:v>
+                  <c:v>0.94030999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.92718999999999996</c:v>
+                  <c:v>0.95279000000000003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.92647999999999997</c:v>
+                  <c:v>0.95209999999999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.92637999999999998</c:v>
+                  <c:v>0.95201000000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.92886999999999997</c:v>
+                  <c:v>0.95443</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.92284999999999995</c:v>
+                  <c:v>0.94850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.9204</c:v>
+                  <c:v>0.94608999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.91952</c:v>
+                  <c:v>0.94521999999999995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.92678000000000005</c:v>
+                  <c:v>0.95240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.92676000000000003</c:v>
+                  <c:v>0.95238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10180,118 +10185,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0.92969999999999997</c:v>
+                  <c:v>0.95538000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92525999999999997</c:v>
+                  <c:v>0.95101000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92193999999999998</c:v>
+                  <c:v>0.94772999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91973000000000005</c:v>
+                  <c:v>0.94555</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91861999999999999</c:v>
+                  <c:v>0.94445000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92956000000000005</c:v>
+                  <c:v>0.95523999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92903000000000002</c:v>
+                  <c:v>0.95472000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92749000000000004</c:v>
+                  <c:v>0.95321999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92678000000000005</c:v>
+                  <c:v>0.95254000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92669000000000001</c:v>
+                  <c:v>0.95245000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92601999999999995</c:v>
+                  <c:v>0.95179999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.92254000000000003</c:v>
+                  <c:v>0.94835000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.92152000000000001</c:v>
+                  <c:v>0.94735999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92113</c:v>
+                  <c:v>0.94696999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92891999999999997</c:v>
+                  <c:v>0.95462000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92864000000000002</c:v>
+                  <c:v>0.95435000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92879999999999996</c:v>
+                  <c:v>0.95450000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93062</c:v>
+                  <c:v>0.95628000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93096000000000001</c:v>
+                  <c:v>0.95660000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92942000000000002</c:v>
+                  <c:v>0.95509999999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92964999999999998</c:v>
+                  <c:v>0.95533000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.92505999999999999</c:v>
+                  <c:v>0.95082</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.92317000000000005</c:v>
+                  <c:v>0.94896000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.92191999999999996</c:v>
+                  <c:v>0.94772000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.92139000000000004</c:v>
+                  <c:v>0.94720000000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.92101</c:v>
+                  <c:v>0.94682999999999995</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91798000000000002</c:v>
+                  <c:v>0.94372</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.91747000000000001</c:v>
+                  <c:v>0.94321999999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.91622000000000003</c:v>
+                  <c:v>0.94196999999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.92810000000000004</c:v>
+                  <c:v>0.95382</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.92752999999999997</c:v>
+                  <c:v>0.95326</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.92745999999999995</c:v>
+                  <c:v>0.95318999999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.92974999999999997</c:v>
+                  <c:v>0.95542000000000005</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.92410999999999999</c:v>
+                  <c:v>0.94989000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.92183999999999999</c:v>
+                  <c:v>0.94765999999999995</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.92103000000000002</c:v>
+                  <c:v>0.94686999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.92791999999999997</c:v>
+                  <c:v>0.95364000000000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.92789999999999995</c:v>
+                  <c:v>0.95362000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10312,7 +10317,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Upper</c:v>
+                  <c:v>Upper Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10470,7 +10475,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lower</c:v>
+                  <c:v>Lower Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11073,12 +11078,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>contingency!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -11191,8 +11197,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -11201,118 +11207,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0.92517000000000005</c:v>
+                  <c:v>0.95006000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91940999999999995</c:v>
+                  <c:v>0.94432000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91510000000000002</c:v>
+                  <c:v>0.94001000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91222999999999999</c:v>
+                  <c:v>0.93713999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91080000000000005</c:v>
+                  <c:v>0.93569999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92488999999999999</c:v>
+                  <c:v>0.94979000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92390000000000005</c:v>
+                  <c:v>0.94882</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92135</c:v>
+                  <c:v>0.94632000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92047999999999996</c:v>
+                  <c:v>0.94545999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92034000000000005</c:v>
+                  <c:v>0.94532000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91935999999999996</c:v>
+                  <c:v>0.94435000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91683000000000003</c:v>
+                  <c:v>0.94179000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91561999999999999</c:v>
+                  <c:v>0.94057999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91507000000000005</c:v>
+                  <c:v>0.94003999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92386999999999997</c:v>
+                  <c:v>0.94879999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92259000000000002</c:v>
+                  <c:v>0.94754000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.91996999999999995</c:v>
+                  <c:v>0.94496000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.91927000000000003</c:v>
+                  <c:v>0.94427000000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.91927000000000003</c:v>
+                  <c:v>0.94427000000000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92420000000000002</c:v>
+                  <c:v>0.94911999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92410000000000003</c:v>
+                  <c:v>0.94903000000000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.91720999999999997</c:v>
+                  <c:v>0.94210000000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.91400999999999999</c:v>
+                  <c:v>0.93889</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91152</c:v>
+                  <c:v>0.93637999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.91049000000000002</c:v>
+                  <c:v>0.93533999999999995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.90990000000000004</c:v>
+                  <c:v>0.93474999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91049000000000002</c:v>
+                  <c:v>0.93527000000000005</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.90983000000000003</c:v>
+                  <c:v>0.93459999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.90817000000000003</c:v>
+                  <c:v>0.93291999999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.92305000000000004</c:v>
+                  <c:v>0.94799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.92179999999999995</c:v>
+                  <c:v>0.94677</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.92161000000000004</c:v>
+                  <c:v>0.94657999999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.92486999999999997</c:v>
+                  <c:v>0.94977999999999996</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.91729000000000005</c:v>
+                  <c:v>0.94221999999999995</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.91410000000000002</c:v>
+                  <c:v>0.93903999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.91296999999999995</c:v>
+                  <c:v>0.93789999999999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.92176000000000002</c:v>
+                  <c:v>0.94672000000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.92171999999999998</c:v>
+                  <c:v>0.94669000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11363,12 +11369,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>contingency!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -11481,8 +11488,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -11491,118 +11498,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0.92617000000000005</c:v>
+                  <c:v>0.95126999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92068000000000005</c:v>
+                  <c:v>0.94581000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91657</c:v>
+                  <c:v>0.94171000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91383000000000003</c:v>
+                  <c:v>0.93896999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91246000000000005</c:v>
+                  <c:v>0.93759999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92591999999999997</c:v>
+                  <c:v>0.95103000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92501999999999995</c:v>
+                  <c:v>0.95015000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92267999999999994</c:v>
+                  <c:v>0.94784999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92183999999999999</c:v>
+                  <c:v>0.94703000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92171000000000003</c:v>
+                  <c:v>0.94689000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92079</c:v>
+                  <c:v>0.94599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91807000000000005</c:v>
+                  <c:v>0.94325000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91690000000000005</c:v>
+                  <c:v>0.94208000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91637999999999997</c:v>
+                  <c:v>0.94157000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92498000000000002</c:v>
+                  <c:v>0.95011000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92388999999999999</c:v>
+                  <c:v>0.94904999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92183000000000004</c:v>
+                  <c:v>0.94701999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.92164000000000001</c:v>
+                  <c:v>0.94682999999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.92171000000000003</c:v>
+                  <c:v>0.94689999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92534000000000005</c:v>
+                  <c:v>0.95045999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92530999999999997</c:v>
+                  <c:v>0.95043</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.91888999999999998</c:v>
+                  <c:v>0.94399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.91595000000000004</c:v>
+                  <c:v>0.94106000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91369999999999996</c:v>
+                  <c:v>0.93881000000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.91276999999999997</c:v>
+                  <c:v>0.93786999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.91222999999999999</c:v>
+                  <c:v>0.93733</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91208999999999996</c:v>
+                  <c:v>0.93711</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.91146000000000005</c:v>
+                  <c:v>0.93647999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.90988000000000002</c:v>
+                  <c:v>0.93488000000000004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.92415000000000003</c:v>
+                  <c:v>0.94930000000000003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.92303999999999997</c:v>
+                  <c:v>0.94821999999999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.92286999999999997</c:v>
+                  <c:v>0.94804999999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.92593999999999999</c:v>
+                  <c:v>0.95104999999999995</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.91876000000000002</c:v>
+                  <c:v>0.94391000000000003</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.91574999999999995</c:v>
+                  <c:v>0.94091000000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.91468000000000005</c:v>
+                  <c:v>0.93984999999999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.92308000000000001</c:v>
+                  <c:v>0.94825000000000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.92305000000000004</c:v>
+                  <c:v>0.94821999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11653,12 +11660,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>contingency!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -11771,8 +11779,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -11781,118 +11789,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0.92713000000000001</c:v>
+                  <c:v>0.95240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92188999999999999</c:v>
+                  <c:v>0.94721999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91798000000000002</c:v>
+                  <c:v>0.94332000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91537999999999997</c:v>
+                  <c:v>0.94072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91408</c:v>
+                  <c:v>0.93942000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92689999999999995</c:v>
+                  <c:v>0.95218999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92610000000000003</c:v>
+                  <c:v>0.95140000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92395000000000005</c:v>
+                  <c:v>0.94930000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92313999999999996</c:v>
+                  <c:v>0.94850999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92301999999999995</c:v>
+                  <c:v>0.94838999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92217000000000005</c:v>
+                  <c:v>0.94755</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91925999999999997</c:v>
+                  <c:v>0.94462999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91813</c:v>
+                  <c:v>0.94350999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91764000000000001</c:v>
+                  <c:v>0.94303000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92603000000000002</c:v>
+                  <c:v>0.95133999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92515000000000003</c:v>
+                  <c:v>0.95047999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92364000000000002</c:v>
+                  <c:v>0.94901000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.92395000000000005</c:v>
+                  <c:v>0.94930999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.92408999999999997</c:v>
+                  <c:v>0.94943999999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92642999999999998</c:v>
+                  <c:v>0.95172999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92647000000000002</c:v>
+                  <c:v>0.95176000000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.92051000000000005</c:v>
+                  <c:v>0.94581999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.91783000000000003</c:v>
+                  <c:v>0.94315000000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91583999999999999</c:v>
+                  <c:v>0.94115000000000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.91500999999999999</c:v>
+                  <c:v>0.94032000000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.91449999999999998</c:v>
+                  <c:v>0.93981999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91363000000000005</c:v>
+                  <c:v>0.93888000000000005</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.91303999999999996</c:v>
+                  <c:v>0.93827000000000005</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.91154000000000002</c:v>
+                  <c:v>0.93676999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.92520999999999998</c:v>
+                  <c:v>0.95054000000000005</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.92423</c:v>
+                  <c:v>0.94957999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.92408000000000001</c:v>
+                  <c:v>0.94943999999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.92696999999999996</c:v>
+                  <c:v>0.95225000000000004</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.92017000000000004</c:v>
+                  <c:v>0.94550999999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.91735</c:v>
+                  <c:v>0.94271000000000005</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.91634000000000004</c:v>
+                  <c:v>0.94171000000000005</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.92435999999999996</c:v>
+                  <c:v>0.94971000000000005</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.92432999999999998</c:v>
+                  <c:v>0.94967999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11943,12 +11951,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>contingency!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -12061,8 +12070,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -12071,118 +12080,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0.92803000000000002</c:v>
+                  <c:v>0.95347000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92306999999999995</c:v>
+                  <c:v>0.94855</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91935</c:v>
+                  <c:v>0.94486999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91688000000000003</c:v>
+                  <c:v>0.94240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91564000000000001</c:v>
+                  <c:v>0.94116999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92784</c:v>
+                  <c:v>0.95328000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92712000000000006</c:v>
+                  <c:v>0.95257999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92517000000000005</c:v>
+                  <c:v>0.95067999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9244</c:v>
+                  <c:v>0.94993000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92428999999999994</c:v>
+                  <c:v>0.94981000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92349999999999999</c:v>
+                  <c:v>0.94903999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9204</c:v>
+                  <c:v>0.94594</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91930999999999996</c:v>
+                  <c:v>0.94486000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91884999999999994</c:v>
+                  <c:v>0.94442000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92705000000000004</c:v>
+                  <c:v>0.95250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92635999999999996</c:v>
+                  <c:v>0.95184000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92540999999999995</c:v>
+                  <c:v>0.95091000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.92623</c:v>
+                  <c:v>0.95170999999999994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.92642999999999998</c:v>
+                  <c:v>0.95189999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92747999999999997</c:v>
+                  <c:v>0.95291999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92757999999999996</c:v>
+                  <c:v>0.95301999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.92206999999999995</c:v>
+                  <c:v>0.94755999999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.91966000000000003</c:v>
+                  <c:v>0.94516</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91791999999999996</c:v>
+                  <c:v>0.94342000000000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.91718999999999995</c:v>
+                  <c:v>0.94269000000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.91673000000000004</c:v>
+                  <c:v>0.94223000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91513</c:v>
+                  <c:v>0.94055999999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.91456999999999999</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.91315000000000002</c:v>
+                  <c:v>0.93857999999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.92622000000000004</c:v>
+                  <c:v>0.95169999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.92537999999999998</c:v>
+                  <c:v>0.95087999999999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.92525999999999997</c:v>
+                  <c:v>0.95076000000000005</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.92793999999999999</c:v>
+                  <c:v>0.95338000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.92152999999999996</c:v>
+                  <c:v>0.94704999999999995</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.91890000000000005</c:v>
+                  <c:v>0.94443999999999995</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.91796</c:v>
+                  <c:v>0.94350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.92559000000000002</c:v>
+                  <c:v>0.95108999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.92557</c:v>
+                  <c:v>0.95106999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12233,12 +12242,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>contingency!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -12351,8 +12361,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -12361,118 +12371,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0.92889999999999995</c:v>
+                  <c:v>0.95445999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92418999999999996</c:v>
+                  <c:v>0.94982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92066999999999999</c:v>
+                  <c:v>0.94633999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91832999999999998</c:v>
+                  <c:v>0.94401000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91715999999999998</c:v>
+                  <c:v>0.94284999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92873000000000006</c:v>
+                  <c:v>0.95428999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92810000000000004</c:v>
+                  <c:v>0.95369000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92635999999999996</c:v>
+                  <c:v>0.95199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92562</c:v>
+                  <c:v>0.95126999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92551000000000005</c:v>
+                  <c:v>0.95116999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92478000000000005</c:v>
+                  <c:v>0.95045000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.92149999999999999</c:v>
+                  <c:v>0.94718000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.92044000000000004</c:v>
+                  <c:v>0.94615000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92001999999999995</c:v>
+                  <c:v>0.94572999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92801</c:v>
+                  <c:v>0.95359000000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92752999999999997</c:v>
+                  <c:v>0.95313000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92713999999999996</c:v>
+                  <c:v>0.95274000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.92845999999999995</c:v>
+                  <c:v>0.95403000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.92873000000000006</c:v>
+                  <c:v>0.95428999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92847000000000002</c:v>
+                  <c:v>0.95404999999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92864000000000002</c:v>
+                  <c:v>0.95421</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.92359000000000002</c:v>
+                  <c:v>0.94921999999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.92144000000000004</c:v>
+                  <c:v>0.94710000000000005</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91995000000000005</c:v>
+                  <c:v>0.94560999999999995</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.91932000000000003</c:v>
+                  <c:v>0.94498000000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.91890000000000005</c:v>
+                  <c:v>0.94457000000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91657999999999995</c:v>
+                  <c:v>0.94218000000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.91605000000000003</c:v>
+                  <c:v>0.94164999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.91471999999999998</c:v>
+                  <c:v>0.94030999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.92718999999999996</c:v>
+                  <c:v>0.95279000000000003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.92647999999999997</c:v>
+                  <c:v>0.95209999999999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.92637999999999998</c:v>
+                  <c:v>0.95201000000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.92886999999999997</c:v>
+                  <c:v>0.95443</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.92284999999999995</c:v>
+                  <c:v>0.94850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.9204</c:v>
+                  <c:v>0.94608999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.91952</c:v>
+                  <c:v>0.94521999999999995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.92678000000000005</c:v>
+                  <c:v>0.95240000000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.92676000000000003</c:v>
+                  <c:v>0.95238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12529,12 +12539,13 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>contingency!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -12647,8 +12658,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -12657,118 +12668,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>0.92969999999999997</c:v>
+                  <c:v>0.95538000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92525999999999997</c:v>
+                  <c:v>0.95101000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92193999999999998</c:v>
+                  <c:v>0.94772999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91973000000000005</c:v>
+                  <c:v>0.94555</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91861999999999999</c:v>
+                  <c:v>0.94445000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92956000000000005</c:v>
+                  <c:v>0.95523999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92903000000000002</c:v>
+                  <c:v>0.95472000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92749000000000004</c:v>
+                  <c:v>0.95321999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92678000000000005</c:v>
+                  <c:v>0.95254000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92669000000000001</c:v>
+                  <c:v>0.95245000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92601999999999995</c:v>
+                  <c:v>0.95179999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.92254000000000003</c:v>
+                  <c:v>0.94835000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.92152000000000001</c:v>
+                  <c:v>0.94735999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92113</c:v>
+                  <c:v>0.94696999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92891999999999997</c:v>
+                  <c:v>0.95462000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92864000000000002</c:v>
+                  <c:v>0.95435000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.92879999999999996</c:v>
+                  <c:v>0.95450000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.93062</c:v>
+                  <c:v>0.95628000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93096000000000001</c:v>
+                  <c:v>0.95660000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.92942000000000002</c:v>
+                  <c:v>0.95509999999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92964999999999998</c:v>
+                  <c:v>0.95533000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.92505999999999999</c:v>
+                  <c:v>0.95082</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.92317000000000005</c:v>
+                  <c:v>0.94896000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.92191999999999996</c:v>
+                  <c:v>0.94772000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.92139000000000004</c:v>
+                  <c:v>0.94720000000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.92101</c:v>
+                  <c:v>0.94682999999999995</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.91798000000000002</c:v>
+                  <c:v>0.94372</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.91747000000000001</c:v>
+                  <c:v>0.94321999999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.91622000000000003</c:v>
+                  <c:v>0.94196999999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.92810000000000004</c:v>
+                  <c:v>0.95382</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.92752999999999997</c:v>
+                  <c:v>0.95326</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.92745999999999995</c:v>
+                  <c:v>0.95318999999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.92974999999999997</c:v>
+                  <c:v>0.95542000000000005</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.92410999999999999</c:v>
+                  <c:v>0.94989000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.92183999999999999</c:v>
+                  <c:v>0.94765999999999995</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.92103000000000002</c:v>
+                  <c:v>0.94686999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.92791999999999997</c:v>
+                  <c:v>0.95364000000000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.92789999999999995</c:v>
+                  <c:v>0.95362000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12789,7 +12800,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Upper</c:v>
+                  <c:v>Upper Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12809,12 +12820,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>contingency!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -12927,8 +12939,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -13069,7 +13081,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lower</c:v>
+                  <c:v>Lower Voltage Limit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13089,12 +13101,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>contingency!$A$3:$A$40</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -13207,8 +13220,8 @@
                 <c:pt idx="37">
                   <c:v>38</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -13491,7 +13504,7 @@
         <c:axId val="1961322431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.9"/>
+          <c:min val="0.92"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -17035,15 +17048,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>199070</xdr:colOff>
+      <xdr:colOff>252410</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
+      <xdr:rowOff>857249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>459104</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>169544</xdr:rowOff>
+      <xdr:colOff>512444</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17111,16 +17124,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>321385</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>105671</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>573741</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>24989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>452046</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>80346</xdr:rowOff>
+      <xdr:colOff>94802</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17188,16 +17201,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17223,1181 +17236,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="parallel"/>
-      <sheetName val="sectionalized"/>
-      <sheetName val="contingency"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>0% PV Penetration</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>20% PV Penetration</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>40% PV Penetration</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>60% PV Penetration</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>80% PV Penetration</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>100% PV Penetration</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>Upper</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>Lower</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="B3">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C3">
-            <v>0.97377000000000002</v>
-          </cell>
-          <cell r="D3">
-            <v>0.97406999999999999</v>
-          </cell>
-          <cell r="E3">
-            <v>0.97436</v>
-          </cell>
-          <cell r="F3">
-            <v>0.97463999999999995</v>
-          </cell>
-          <cell r="G3">
-            <v>0.97492000000000001</v>
-          </cell>
-          <cell r="H3">
-            <v>1.05</v>
-          </cell>
-          <cell r="I3">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>B</v>
-          </cell>
-          <cell r="B4">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C4">
-            <v>0.97382000000000002</v>
-          </cell>
-          <cell r="D4">
-            <v>0.97414999999999996</v>
-          </cell>
-          <cell r="E4">
-            <v>0.97448000000000001</v>
-          </cell>
-          <cell r="F4">
-            <v>0.97479000000000005</v>
-          </cell>
-          <cell r="G4">
-            <v>0.97507999999999995</v>
-          </cell>
-          <cell r="H4">
-            <v>1.05</v>
-          </cell>
-          <cell r="I4">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>2</v>
-          </cell>
-          <cell r="B5">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C5">
-            <v>0.97406999999999999</v>
-          </cell>
-          <cell r="D5">
-            <v>0.97467000000000004</v>
-          </cell>
-          <cell r="E5">
-            <v>0.97524999999999995</v>
-          </cell>
-          <cell r="F5">
-            <v>0.97580999999999996</v>
-          </cell>
-          <cell r="G5">
-            <v>0.97636000000000001</v>
-          </cell>
-          <cell r="H5">
-            <v>1.05</v>
-          </cell>
-          <cell r="I5">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>3</v>
-          </cell>
-          <cell r="B6">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C6">
-            <v>0.97426999999999997</v>
-          </cell>
-          <cell r="D6">
-            <v>0.97504999999999997</v>
-          </cell>
-          <cell r="E6">
-            <v>0.97582999999999998</v>
-          </cell>
-          <cell r="F6">
-            <v>0.97658</v>
-          </cell>
-          <cell r="G6">
-            <v>0.97731999999999997</v>
-          </cell>
-          <cell r="H6">
-            <v>1.05</v>
-          </cell>
-          <cell r="I6">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>4</v>
-          </cell>
-          <cell r="B7">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C7">
-            <v>0.97440000000000004</v>
-          </cell>
-          <cell r="D7">
-            <v>0.97531000000000001</v>
-          </cell>
-          <cell r="E7">
-            <v>0.97621000000000002</v>
-          </cell>
-          <cell r="F7">
-            <v>0.97709000000000001</v>
-          </cell>
-          <cell r="G7">
-            <v>0.97796000000000005</v>
-          </cell>
-          <cell r="H7">
-            <v>1.05</v>
-          </cell>
-          <cell r="I7">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>5</v>
-          </cell>
-          <cell r="B8">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C8">
-            <v>0.97445999999999999</v>
-          </cell>
-          <cell r="D8">
-            <v>0.97543999999999997</v>
-          </cell>
-          <cell r="E8">
-            <v>0.97640000000000005</v>
-          </cell>
-          <cell r="F8">
-            <v>0.97735000000000005</v>
-          </cell>
-          <cell r="G8">
-            <v>0.97828000000000004</v>
-          </cell>
-          <cell r="H8">
-            <v>1.05</v>
-          </cell>
-          <cell r="I8">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>6</v>
-          </cell>
-          <cell r="B9">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C9">
-            <v>0.97416000000000003</v>
-          </cell>
-          <cell r="D9">
-            <v>0.97484999999999999</v>
-          </cell>
-          <cell r="E9">
-            <v>0.97552000000000005</v>
-          </cell>
-          <cell r="F9">
-            <v>0.97616999999999998</v>
-          </cell>
-          <cell r="G9">
-            <v>0.97680999999999996</v>
-          </cell>
-          <cell r="H9">
-            <v>1.05</v>
-          </cell>
-          <cell r="I9">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>7</v>
-          </cell>
-          <cell r="B10">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C10">
-            <v>0.97421999999999997</v>
-          </cell>
-          <cell r="D10">
-            <v>0.97497</v>
-          </cell>
-          <cell r="E10">
-            <v>0.97570000000000001</v>
-          </cell>
-          <cell r="F10">
-            <v>0.97641</v>
-          </cell>
-          <cell r="G10">
-            <v>0.97711000000000003</v>
-          </cell>
-          <cell r="H10">
-            <v>1.05</v>
-          </cell>
-          <cell r="I10">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>8</v>
-          </cell>
-          <cell r="B11">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C11">
-            <v>0.97391000000000005</v>
-          </cell>
-          <cell r="D11">
-            <v>0.97435000000000005</v>
-          </cell>
-          <cell r="E11">
-            <v>0.97477000000000003</v>
-          </cell>
-          <cell r="F11">
-            <v>0.97516999999999998</v>
-          </cell>
-          <cell r="G11">
-            <v>0.97555999999999998</v>
-          </cell>
-          <cell r="H11">
-            <v>1.05</v>
-          </cell>
-          <cell r="I11">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>9</v>
-          </cell>
-          <cell r="B12">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C12">
-            <v>0.97411000000000003</v>
-          </cell>
-          <cell r="D12">
-            <v>0.97472999999999999</v>
-          </cell>
-          <cell r="E12">
-            <v>0.97533999999999998</v>
-          </cell>
-          <cell r="F12">
-            <v>0.97594000000000003</v>
-          </cell>
-          <cell r="G12">
-            <v>0.97652000000000005</v>
-          </cell>
-          <cell r="H12">
-            <v>1.05</v>
-          </cell>
-          <cell r="I12">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>10</v>
-          </cell>
-          <cell r="B13">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C13">
-            <v>0.97463999999999995</v>
-          </cell>
-          <cell r="D13">
-            <v>0.97579000000000005</v>
-          </cell>
-          <cell r="E13">
-            <v>0.97692999999999997</v>
-          </cell>
-          <cell r="F13">
-            <v>0.97804999999999997</v>
-          </cell>
-          <cell r="G13">
-            <v>0.97914999999999996</v>
-          </cell>
-          <cell r="H13">
-            <v>1.05</v>
-          </cell>
-          <cell r="I13">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>11</v>
-          </cell>
-          <cell r="B14">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C14">
-            <v>0.97511999999999999</v>
-          </cell>
-          <cell r="D14">
-            <v>0.97675000000000001</v>
-          </cell>
-          <cell r="E14">
-            <v>0.97836999999999996</v>
-          </cell>
-          <cell r="F14">
-            <v>0.97997000000000001</v>
-          </cell>
-          <cell r="G14">
-            <v>0.98155000000000003</v>
-          </cell>
-          <cell r="H14">
-            <v>1.05</v>
-          </cell>
-          <cell r="I14">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>12</v>
-          </cell>
-          <cell r="B15">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C15">
-            <v>0.97518000000000005</v>
-          </cell>
-          <cell r="D15">
-            <v>0.97687999999999997</v>
-          </cell>
-          <cell r="E15">
-            <v>0.97855999999999999</v>
-          </cell>
-          <cell r="F15">
-            <v>0.98021999999999998</v>
-          </cell>
-          <cell r="G15">
-            <v>0.98187000000000002</v>
-          </cell>
-          <cell r="H15">
-            <v>1.05</v>
-          </cell>
-          <cell r="I15">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>13</v>
-          </cell>
-          <cell r="B16">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C16">
-            <v>0.97445999999999999</v>
-          </cell>
-          <cell r="D16">
-            <v>0.97543999999999997</v>
-          </cell>
-          <cell r="E16">
-            <v>0.97640000000000005</v>
-          </cell>
-          <cell r="F16">
-            <v>0.97733999999999999</v>
-          </cell>
-          <cell r="G16">
-            <v>0.97826999999999997</v>
-          </cell>
-          <cell r="H16">
-            <v>1.05</v>
-          </cell>
-          <cell r="I16">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>14</v>
-          </cell>
-          <cell r="B17">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C17">
-            <v>0.97472000000000003</v>
-          </cell>
-          <cell r="D17">
-            <v>0.97594999999999998</v>
-          </cell>
-          <cell r="E17">
-            <v>0.97716999999999998</v>
-          </cell>
-          <cell r="F17">
-            <v>0.97836999999999996</v>
-          </cell>
-          <cell r="G17">
-            <v>0.97955000000000003</v>
-          </cell>
-          <cell r="H17">
-            <v>1.05</v>
-          </cell>
-          <cell r="I17">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>15</v>
-          </cell>
-          <cell r="B18">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C18">
-            <v>0.97496000000000005</v>
-          </cell>
-          <cell r="D18">
-            <v>0.97643000000000002</v>
-          </cell>
-          <cell r="E18">
-            <v>0.97789000000000004</v>
-          </cell>
-          <cell r="F18">
-            <v>0.97931999999999997</v>
-          </cell>
-          <cell r="G18">
-            <v>0.98073999999999995</v>
-          </cell>
-          <cell r="H18">
-            <v>1.05</v>
-          </cell>
-          <cell r="I18">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>16</v>
-          </cell>
-          <cell r="B19">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C19">
-            <v>0.97504999999999997</v>
-          </cell>
-          <cell r="D19">
-            <v>0.97662000000000004</v>
-          </cell>
-          <cell r="E19">
-            <v>0.97818000000000005</v>
-          </cell>
-          <cell r="F19">
-            <v>0.97970999999999997</v>
-          </cell>
-          <cell r="G19">
-            <v>0.98121999999999998</v>
-          </cell>
-          <cell r="H19">
-            <v>1.05</v>
-          </cell>
-          <cell r="I19">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>17</v>
-          </cell>
-          <cell r="B20">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C20">
-            <v>0.97509999999999997</v>
-          </cell>
-          <cell r="D20">
-            <v>0.97670999999999997</v>
-          </cell>
-          <cell r="E20">
-            <v>0.97829999999999995</v>
-          </cell>
-          <cell r="F20">
-            <v>0.97987000000000002</v>
-          </cell>
-          <cell r="G20">
-            <v>0.98143000000000002</v>
-          </cell>
-          <cell r="H20">
-            <v>1.05</v>
-          </cell>
-          <cell r="I20">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>18</v>
-          </cell>
-          <cell r="B21">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C21">
-            <v>0.97391000000000005</v>
-          </cell>
-          <cell r="D21">
-            <v>0.97435000000000005</v>
-          </cell>
-          <cell r="E21">
-            <v>0.97477000000000003</v>
-          </cell>
-          <cell r="F21">
-            <v>0.97516999999999998</v>
-          </cell>
-          <cell r="G21">
-            <v>0.97555999999999998</v>
-          </cell>
-          <cell r="H21">
-            <v>1.05</v>
-          </cell>
-          <cell r="I21">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>19</v>
-          </cell>
-          <cell r="B22">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C22">
-            <v>0.97404000000000002</v>
-          </cell>
-          <cell r="D22">
-            <v>0.97460000000000002</v>
-          </cell>
-          <cell r="E22">
-            <v>0.97514999999999996</v>
-          </cell>
-          <cell r="F22">
-            <v>0.97568999999999995</v>
-          </cell>
-          <cell r="G22">
-            <v>0.97619999999999996</v>
-          </cell>
-          <cell r="H22">
-            <v>1.05</v>
-          </cell>
-          <cell r="I22">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>20</v>
-          </cell>
-          <cell r="B23">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C23">
-            <v>0.97406000000000004</v>
-          </cell>
-          <cell r="D23">
-            <v>0.97465000000000002</v>
-          </cell>
-          <cell r="E23">
-            <v>0.97521999999999998</v>
-          </cell>
-          <cell r="F23">
-            <v>0.97577999999999998</v>
-          </cell>
-          <cell r="G23">
-            <v>0.97631999999999997</v>
-          </cell>
-          <cell r="H23">
-            <v>1.05</v>
-          </cell>
-          <cell r="I23">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>21</v>
-          </cell>
-          <cell r="B24">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C24">
-            <v>0.97426000000000001</v>
-          </cell>
-          <cell r="D24">
-            <v>0.97504000000000002</v>
-          </cell>
-          <cell r="E24">
-            <v>0.97580999999999996</v>
-          </cell>
-          <cell r="F24">
-            <v>0.97655999999999998</v>
-          </cell>
-          <cell r="G24">
-            <v>0.97728999999999999</v>
-          </cell>
-          <cell r="H24">
-            <v>1.05</v>
-          </cell>
-          <cell r="I24">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>22</v>
-          </cell>
-          <cell r="B25">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C25">
-            <v>0.97443999999999997</v>
-          </cell>
-          <cell r="D25">
-            <v>0.97540000000000004</v>
-          </cell>
-          <cell r="E25">
-            <v>0.97635000000000005</v>
-          </cell>
-          <cell r="F25">
-            <v>0.97726999999999997</v>
-          </cell>
-          <cell r="G25">
-            <v>0.97819</v>
-          </cell>
-          <cell r="H25">
-            <v>1.05</v>
-          </cell>
-          <cell r="I25">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>23</v>
-          </cell>
-          <cell r="B26">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C26">
-            <v>0.97450000000000003</v>
-          </cell>
-          <cell r="D26">
-            <v>0.97553000000000001</v>
-          </cell>
-          <cell r="E26">
-            <v>0.97653999999999996</v>
-          </cell>
-          <cell r="F26">
-            <v>0.97753000000000001</v>
-          </cell>
-          <cell r="G26">
-            <v>0.97850999999999999</v>
-          </cell>
-          <cell r="H26">
-            <v>1.05</v>
-          </cell>
-          <cell r="I26">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>24</v>
-          </cell>
-          <cell r="B27">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C27">
-            <v>0.97379000000000004</v>
-          </cell>
-          <cell r="D27">
-            <v>0.97411999999999999</v>
-          </cell>
-          <cell r="E27">
-            <v>0.97443999999999997</v>
-          </cell>
-          <cell r="F27">
-            <v>0.97475000000000001</v>
-          </cell>
-          <cell r="G27">
-            <v>0.97504000000000002</v>
-          </cell>
-          <cell r="H27">
-            <v>1.05</v>
-          </cell>
-          <cell r="I27">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>25</v>
-          </cell>
-          <cell r="B28">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C28">
-            <v>0.97387999999999997</v>
-          </cell>
-          <cell r="D28">
-            <v>0.97430000000000005</v>
-          </cell>
-          <cell r="E28">
-            <v>0.97470000000000001</v>
-          </cell>
-          <cell r="F28">
-            <v>0.97509000000000001</v>
-          </cell>
-          <cell r="G28">
-            <v>0.97548000000000001</v>
-          </cell>
-          <cell r="H28">
-            <v>1.05</v>
-          </cell>
-          <cell r="I28">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>26</v>
-          </cell>
-          <cell r="B29">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C29">
-            <v>0.97406999999999999</v>
-          </cell>
-          <cell r="D29">
-            <v>0.97467999999999999</v>
-          </cell>
-          <cell r="E29">
-            <v>0.97528000000000004</v>
-          </cell>
-          <cell r="F29">
-            <v>0.97585999999999995</v>
-          </cell>
-          <cell r="G29">
-            <v>0.97643999999999997</v>
-          </cell>
-          <cell r="H29">
-            <v>1.05</v>
-          </cell>
-          <cell r="I29">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>27</v>
-          </cell>
-          <cell r="B30">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C30">
-            <v>0.97411000000000003</v>
-          </cell>
-          <cell r="D30">
-            <v>0.97475000000000001</v>
-          </cell>
-          <cell r="E30">
-            <v>0.97536999999999996</v>
-          </cell>
-          <cell r="F30">
-            <v>0.97599000000000002</v>
-          </cell>
-          <cell r="G30">
-            <v>0.97660000000000002</v>
-          </cell>
-          <cell r="H30">
-            <v>1.05</v>
-          </cell>
-          <cell r="I30">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>28</v>
-          </cell>
-          <cell r="B31">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C31">
-            <v>0.97399999999999998</v>
-          </cell>
-          <cell r="D31">
-            <v>0.97453000000000001</v>
-          </cell>
-          <cell r="E31">
-            <v>0.97506000000000004</v>
-          </cell>
-          <cell r="F31">
-            <v>0.97557000000000005</v>
-          </cell>
-          <cell r="G31">
-            <v>0.97606999999999999</v>
-          </cell>
-          <cell r="H31">
-            <v>1.05</v>
-          </cell>
-          <cell r="I31">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>29</v>
-          </cell>
-          <cell r="B32">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C32">
-            <v>0.97404000000000002</v>
-          </cell>
-          <cell r="D32">
-            <v>0.97460999999999998</v>
-          </cell>
-          <cell r="E32">
-            <v>0.97516999999999998</v>
-          </cell>
-          <cell r="F32">
-            <v>0.97572000000000003</v>
-          </cell>
-          <cell r="G32">
-            <v>0.97626000000000002</v>
-          </cell>
-          <cell r="H32">
-            <v>1.05</v>
-          </cell>
-          <cell r="I32">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>30</v>
-          </cell>
-          <cell r="B33">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C33">
-            <v>0.97406999999999999</v>
-          </cell>
-          <cell r="D33">
-            <v>0.97467000000000004</v>
-          </cell>
-          <cell r="E33">
-            <v>0.97526000000000002</v>
-          </cell>
-          <cell r="F33">
-            <v>0.97584000000000004</v>
-          </cell>
-          <cell r="G33">
-            <v>0.97641</v>
-          </cell>
-          <cell r="H33">
-            <v>1.05</v>
-          </cell>
-          <cell r="I33">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>31</v>
-          </cell>
-          <cell r="B34">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C34">
-            <v>0.97389999999999999</v>
-          </cell>
-          <cell r="D34">
-            <v>0.97433000000000003</v>
-          </cell>
-          <cell r="E34">
-            <v>0.97475000000000001</v>
-          </cell>
-          <cell r="F34">
-            <v>0.97516000000000003</v>
-          </cell>
-          <cell r="G34">
-            <v>0.97555999999999998</v>
-          </cell>
-          <cell r="H34">
-            <v>1.05</v>
-          </cell>
-          <cell r="I34">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>32</v>
-          </cell>
-          <cell r="B35">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C35">
-            <v>0.97396000000000005</v>
-          </cell>
-          <cell r="D35">
-            <v>0.97445999999999999</v>
-          </cell>
-          <cell r="E35">
-            <v>0.97494000000000003</v>
-          </cell>
-          <cell r="F35">
-            <v>0.97541</v>
-          </cell>
-          <cell r="G35">
-            <v>0.97587999999999997</v>
-          </cell>
-          <cell r="H35">
-            <v>1.05</v>
-          </cell>
-          <cell r="I35">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>33</v>
-          </cell>
-          <cell r="B36">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C36">
-            <v>0.97435000000000005</v>
-          </cell>
-          <cell r="D36">
-            <v>0.97523000000000004</v>
-          </cell>
-          <cell r="E36">
-            <v>0.97609000000000001</v>
-          </cell>
-          <cell r="F36">
-            <v>0.97694999999999999</v>
-          </cell>
-          <cell r="G36">
-            <v>0.9778</v>
-          </cell>
-          <cell r="H36">
-            <v>1.05</v>
-          </cell>
-          <cell r="I36">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>34</v>
-          </cell>
-          <cell r="B37">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C37">
-            <v>0.97438000000000002</v>
-          </cell>
-          <cell r="D37">
-            <v>0.97528999999999999</v>
-          </cell>
-          <cell r="E37">
-            <v>0.97619</v>
-          </cell>
-          <cell r="F37">
-            <v>0.97707999999999995</v>
-          </cell>
-          <cell r="G37">
-            <v>0.97796000000000005</v>
-          </cell>
-          <cell r="H37">
-            <v>1.05</v>
-          </cell>
-          <cell r="I37">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>35</v>
-          </cell>
-          <cell r="B38">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C38">
-            <v>0.97445999999999999</v>
-          </cell>
-          <cell r="D38">
-            <v>0.97545000000000004</v>
-          </cell>
-          <cell r="E38">
-            <v>0.97643000000000002</v>
-          </cell>
-          <cell r="F38">
-            <v>0.97740000000000005</v>
-          </cell>
-          <cell r="G38">
-            <v>0.97836000000000001</v>
-          </cell>
-          <cell r="H38">
-            <v>1.05</v>
-          </cell>
-          <cell r="I38">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>36</v>
-          </cell>
-          <cell r="B39">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C39">
-            <v>0.97382999999999997</v>
-          </cell>
-          <cell r="D39">
-            <v>0.97419999999999995</v>
-          </cell>
-          <cell r="E39">
-            <v>0.97455000000000003</v>
-          </cell>
-          <cell r="F39">
-            <v>0.97489999999999999</v>
-          </cell>
-          <cell r="G39">
-            <v>0.97524</v>
-          </cell>
-          <cell r="H39">
-            <v>1.05</v>
-          </cell>
-          <cell r="I39">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>37</v>
-          </cell>
-          <cell r="B40">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C40">
-            <v>0.97407999999999995</v>
-          </cell>
-          <cell r="D40">
-            <v>0.97468999999999995</v>
-          </cell>
-          <cell r="E40">
-            <v>0.97528999999999999</v>
-          </cell>
-          <cell r="F40">
-            <v>0.97587999999999997</v>
-          </cell>
-          <cell r="G40">
-            <v>0.97645000000000004</v>
-          </cell>
-          <cell r="H40">
-            <v>1.05</v>
-          </cell>
-          <cell r="I40">
-            <v>0.95</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>38</v>
-          </cell>
-          <cell r="B41">
-            <v>0.97345999999999999</v>
-          </cell>
-          <cell r="C41">
-            <v>0.97407999999999995</v>
-          </cell>
-          <cell r="D41">
-            <v>0.97468999999999995</v>
-          </cell>
-          <cell r="E41">
-            <v>0.97529999999999994</v>
-          </cell>
-          <cell r="F41">
-            <v>0.97589000000000004</v>
-          </cell>
-          <cell r="G41">
-            <v>0.97646999999999995</v>
-          </cell>
-          <cell r="H41">
-            <v>1.05</v>
-          </cell>
-          <cell r="I41">
-            <v>0.95</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18666,7 +17504,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18713,15 +17551,15 @@
         <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
+      <c r="A3" s="4">
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0.97240000000000004</v>
@@ -19833,10 +18671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58818F0F-B8A4-4E9E-8A6B-6774FB0B32F0}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC18" sqref="AC18"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19883,33 +18721,33 @@
         <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.95443999999999996</v>
+        <v>0.97565000000000002</v>
       </c>
       <c r="C3">
-        <v>0.95487999999999995</v>
+        <v>0.97616999999999998</v>
       </c>
       <c r="D3">
-        <v>0.95530999999999999</v>
+        <v>0.97667000000000004</v>
       </c>
       <c r="E3">
-        <v>0.95572999999999997</v>
+        <v>0.97714999999999996</v>
       </c>
       <c r="F3">
-        <v>0.95613000000000004</v>
+        <v>0.97760999999999998</v>
       </c>
       <c r="G3">
-        <v>0.95652999999999999</v>
+        <v>0.97806000000000004</v>
       </c>
       <c r="H3">
         <v>1.05</v>
@@ -19920,25 +18758,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.94996000000000003</v>
+        <v>0.96906000000000003</v>
       </c>
       <c r="C4">
-        <v>0.95048999999999995</v>
+        <v>0.96972000000000003</v>
       </c>
       <c r="D4">
-        <v>0.95101000000000002</v>
+        <v>0.97036</v>
       </c>
       <c r="E4">
-        <v>0.95150999999999997</v>
+        <v>0.97096000000000005</v>
       </c>
       <c r="F4">
-        <v>0.95199999999999996</v>
+        <v>0.97153999999999996</v>
       </c>
       <c r="G4">
-        <v>0.95245999999999997</v>
+        <v>0.97209000000000001</v>
       </c>
       <c r="H4">
         <v>1.05</v>
@@ -19952,22 +18790,22 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.94421999999999995</v>
+        <v>0.96343000000000001</v>
       </c>
       <c r="C5">
-        <v>0.94501999999999997</v>
+        <v>0.96436999999999995</v>
       </c>
       <c r="D5">
-        <v>0.94581999999999999</v>
+        <v>0.96526999999999996</v>
       </c>
       <c r="E5">
-        <v>0.94659000000000004</v>
+        <v>0.96614</v>
       </c>
       <c r="F5">
-        <v>0.94735000000000003</v>
+        <v>0.96697999999999995</v>
       </c>
       <c r="G5">
-        <v>0.94808999999999999</v>
+        <v>0.96779999999999999</v>
       </c>
       <c r="H5">
         <v>1.05</v>
@@ -19981,22 +18819,22 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>0.93989999999999996</v>
+        <v>0.95921000000000001</v>
       </c>
       <c r="C6">
-        <v>0.94091999999999998</v>
+        <v>0.96033999999999997</v>
       </c>
       <c r="D6">
-        <v>0.94191000000000003</v>
+        <v>0.96145000000000003</v>
       </c>
       <c r="E6">
-        <v>0.94289000000000001</v>
+        <v>0.96252000000000004</v>
       </c>
       <c r="F6">
-        <v>0.94386000000000003</v>
+        <v>0.96355999999999997</v>
       </c>
       <c r="G6">
-        <v>0.94479999999999997</v>
+        <v>0.96457000000000004</v>
       </c>
       <c r="H6">
         <v>1.05</v>
@@ -20010,22 +18848,22 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>0.93701999999999996</v>
+        <v>0.95638999999999996</v>
       </c>
       <c r="C7">
-        <v>0.93818000000000001</v>
+        <v>0.95765999999999996</v>
       </c>
       <c r="D7">
-        <v>0.93930999999999998</v>
+        <v>0.95889999999999997</v>
       </c>
       <c r="E7">
-        <v>0.94042999999999999</v>
+        <v>0.96009999999999995</v>
       </c>
       <c r="F7">
-        <v>0.94152999999999998</v>
+        <v>0.96128000000000002</v>
       </c>
       <c r="G7">
-        <v>0.94259999999999999</v>
+        <v>0.96243000000000001</v>
       </c>
       <c r="H7">
         <v>1.05</v>
@@ -20039,22 +18877,22 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.93557999999999997</v>
+        <v>0.95498000000000005</v>
       </c>
       <c r="C8">
-        <v>0.93681000000000003</v>
+        <v>0.95631999999999995</v>
       </c>
       <c r="D8">
-        <v>0.93801000000000001</v>
+        <v>0.95762000000000003</v>
       </c>
       <c r="E8">
-        <v>0.93918999999999997</v>
+        <v>0.95889999999999997</v>
       </c>
       <c r="F8">
-        <v>0.94035999999999997</v>
+        <v>0.96013999999999999</v>
       </c>
       <c r="G8">
-        <v>0.94150999999999996</v>
+        <v>0.96135000000000004</v>
       </c>
       <c r="H8">
         <v>1.05</v>
@@ -20068,22 +18906,22 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>0.94520999999999999</v>
+        <v>0.97538999999999998</v>
       </c>
       <c r="C9">
-        <v>0.94611000000000001</v>
+        <v>0.97592999999999996</v>
       </c>
       <c r="D9">
-        <v>0.94699</v>
+        <v>0.97645999999999999</v>
       </c>
       <c r="E9">
-        <v>0.94784999999999997</v>
+        <v>0.97696000000000005</v>
       </c>
       <c r="F9">
-        <v>0.94869999999999999</v>
+        <v>0.97745000000000004</v>
       </c>
       <c r="G9">
-        <v>0.94952000000000003</v>
+        <v>0.97792999999999997</v>
       </c>
       <c r="H9">
         <v>1.05</v>
@@ -20097,22 +18935,22 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0.94423999999999997</v>
+        <v>0.97443999999999997</v>
       </c>
       <c r="C10">
-        <v>0.94520999999999999</v>
+        <v>0.97507999999999995</v>
       </c>
       <c r="D10">
-        <v>0.94615000000000005</v>
+        <v>0.97568999999999995</v>
       </c>
       <c r="E10">
-        <v>0.94706999999999997</v>
+        <v>0.97628000000000004</v>
       </c>
       <c r="F10">
-        <v>0.94799</v>
+        <v>0.97685999999999995</v>
       </c>
       <c r="G10">
-        <v>0.94886999999999999</v>
+        <v>0.97741999999999996</v>
       </c>
       <c r="H10">
         <v>1.05</v>
@@ -20126,22 +18964,22 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0.94869000000000003</v>
+        <v>0.97201000000000004</v>
       </c>
       <c r="C11">
-        <v>0.94933000000000001</v>
+        <v>0.97282999999999997</v>
       </c>
       <c r="D11">
-        <v>0.94994999999999996</v>
+        <v>0.97363999999999995</v>
       </c>
       <c r="E11">
-        <v>0.95055000000000001</v>
+        <v>0.97443000000000002</v>
       </c>
       <c r="F11">
-        <v>0.95113000000000003</v>
+        <v>0.97519999999999996</v>
       </c>
       <c r="G11">
-        <v>0.95169999999999999</v>
+        <v>0.97596000000000005</v>
       </c>
       <c r="H11">
         <v>1.05</v>
@@ -20155,22 +18993,22 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0.94742999999999999</v>
+        <v>0.97116999999999998</v>
       </c>
       <c r="C12">
-        <v>0.94825999999999999</v>
+        <v>0.97202999999999995</v>
       </c>
       <c r="D12">
-        <v>0.94908000000000003</v>
+        <v>0.97287000000000001</v>
       </c>
       <c r="E12">
-        <v>0.94987999999999995</v>
+        <v>0.97369000000000006</v>
       </c>
       <c r="F12">
-        <v>0.95067000000000002</v>
+        <v>0.97450000000000003</v>
       </c>
       <c r="G12">
-        <v>0.95143</v>
+        <v>0.97528999999999999</v>
       </c>
       <c r="H12">
         <v>1.05</v>
@@ -20184,22 +19022,22 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>0.94486000000000003</v>
+        <v>0.96440999999999999</v>
       </c>
       <c r="C13">
-        <v>0.94623999999999997</v>
+        <v>0.96543000000000001</v>
       </c>
       <c r="D13">
-        <v>0.94760999999999995</v>
+        <v>0.96640999999999999</v>
       </c>
       <c r="E13">
-        <v>0.94894999999999996</v>
+        <v>0.96736999999999995</v>
       </c>
       <c r="F13">
-        <v>0.95028000000000001</v>
+        <v>0.96830000000000005</v>
       </c>
       <c r="G13">
-        <v>0.95159000000000005</v>
+        <v>0.96919999999999995</v>
       </c>
       <c r="H13">
         <v>1.05</v>
@@ -20213,22 +19051,22 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>0.94416</v>
+        <v>0.96345999999999998</v>
       </c>
       <c r="C14">
-        <v>0.94604999999999995</v>
+        <v>0.96453999999999995</v>
       </c>
       <c r="D14">
-        <v>0.94791000000000003</v>
+        <v>0.96558999999999995</v>
       </c>
       <c r="E14">
-        <v>0.94974999999999998</v>
+        <v>0.96660999999999997</v>
       </c>
       <c r="F14">
-        <v>0.95157000000000003</v>
+        <v>0.96760999999999997</v>
       </c>
       <c r="G14">
-        <v>0.95335999999999999</v>
+        <v>0.96857000000000004</v>
       </c>
       <c r="H14">
         <v>1.05</v>
@@ -20242,22 +19080,22 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.94416</v>
+        <v>0.96760000000000002</v>
       </c>
       <c r="C15">
-        <v>0.94611000000000001</v>
+        <v>0.96835000000000004</v>
       </c>
       <c r="D15">
-        <v>0.94803999999999999</v>
+        <v>0.96909000000000001</v>
       </c>
       <c r="E15">
-        <v>0.94994999999999996</v>
+        <v>0.96980999999999995</v>
       </c>
       <c r="F15">
-        <v>0.95182999999999995</v>
+        <v>0.97052000000000005</v>
       </c>
       <c r="G15">
-        <v>0.95369000000000004</v>
+        <v>0.97119999999999995</v>
       </c>
       <c r="H15">
         <v>1.05</v>
@@ -20271,22 +19109,22 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>0.94198999999999999</v>
+        <v>0.96641999999999995</v>
       </c>
       <c r="C16">
-        <v>0.94320999999999999</v>
+        <v>0.96721999999999997</v>
       </c>
       <c r="D16">
-        <v>0.94440999999999997</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="E16">
-        <v>0.94559000000000004</v>
+        <v>0.96875999999999995</v>
       </c>
       <c r="F16">
-        <v>0.94674999999999998</v>
+        <v>0.96950000000000003</v>
       </c>
       <c r="G16">
-        <v>0.94789000000000001</v>
+        <v>0.97023000000000004</v>
       </c>
       <c r="H16">
         <v>1.05</v>
@@ -20300,22 +19138,22 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>0.93877999999999995</v>
+        <v>0.96589000000000003</v>
       </c>
       <c r="C17">
-        <v>0.94027000000000005</v>
+        <v>0.96672000000000002</v>
       </c>
       <c r="D17">
-        <v>0.94174000000000002</v>
+        <v>0.96753</v>
       </c>
       <c r="E17">
-        <v>0.94318999999999997</v>
+        <v>0.96831999999999996</v>
       </c>
       <c r="F17">
-        <v>0.94462000000000002</v>
+        <v>0.96909999999999996</v>
       </c>
       <c r="G17">
-        <v>0.94603000000000004</v>
+        <v>0.96984999999999999</v>
       </c>
       <c r="H17">
         <v>1.05</v>
@@ -20329,22 +19167,22 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>0.93627000000000005</v>
+        <v>0.96782000000000001</v>
       </c>
       <c r="C18">
-        <v>0.93801999999999996</v>
+        <v>0.96858</v>
       </c>
       <c r="D18">
-        <v>0.93974000000000002</v>
+        <v>0.96931</v>
       </c>
       <c r="E18">
-        <v>0.94144000000000005</v>
+        <v>0.97001999999999999</v>
       </c>
       <c r="F18">
-        <v>0.94313000000000002</v>
+        <v>0.97069000000000005</v>
       </c>
       <c r="G18">
-        <v>0.94477999999999995</v>
+        <v>0.97133999999999998</v>
       </c>
       <c r="H18">
         <v>1.05</v>
@@ -20358,22 +19196,22 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>0.93523000000000001</v>
+        <v>0.96657999999999999</v>
       </c>
       <c r="C19">
-        <v>0.93708000000000002</v>
+        <v>0.96753999999999996</v>
       </c>
       <c r="D19">
-        <v>0.93891000000000002</v>
+        <v>0.96847000000000005</v>
       </c>
       <c r="E19">
-        <v>0.94071000000000005</v>
+        <v>0.96936</v>
       </c>
       <c r="F19">
-        <v>0.9425</v>
+        <v>0.97023000000000004</v>
       </c>
       <c r="G19">
-        <v>0.94425999999999999</v>
+        <v>0.97106999999999999</v>
       </c>
       <c r="H19">
         <v>1.05</v>
@@ -20387,22 +19225,22 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <v>0.93464000000000003</v>
+        <v>0.96406000000000003</v>
       </c>
       <c r="C20">
-        <v>0.93652999999999997</v>
+        <v>0.96555999999999997</v>
       </c>
       <c r="D20">
-        <v>0.93840999999999997</v>
+        <v>0.96701999999999999</v>
       </c>
       <c r="E20">
-        <v>0.94025000000000003</v>
+        <v>0.96845000000000003</v>
       </c>
       <c r="F20">
-        <v>0.94208000000000003</v>
+        <v>0.96986000000000006</v>
       </c>
       <c r="G20">
-        <v>0.94389000000000001</v>
+        <v>0.97123000000000004</v>
       </c>
       <c r="H20">
         <v>1.05</v>
@@ -20416,22 +19254,22 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <v>0.94789000000000001</v>
+        <v>0.96338000000000001</v>
       </c>
       <c r="C21">
-        <v>0.94852000000000003</v>
+        <v>0.96536999999999995</v>
       </c>
       <c r="D21">
-        <v>0.94913999999999998</v>
+        <v>0.96731999999999996</v>
       </c>
       <c r="E21">
-        <v>0.94974000000000003</v>
+        <v>0.96923000000000004</v>
       </c>
       <c r="F21">
-        <v>0.95033000000000001</v>
+        <v>0.97111999999999998</v>
       </c>
       <c r="G21">
-        <v>0.95089999999999997</v>
+        <v>0.97297</v>
       </c>
       <c r="H21">
         <v>1.05</v>
@@ -20445,22 +19283,22 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <v>0.94665999999999995</v>
+        <v>0.96338000000000001</v>
       </c>
       <c r="C22">
-        <v>0.94742999999999999</v>
+        <v>0.96543000000000001</v>
       </c>
       <c r="D22">
-        <v>0.94818999999999998</v>
+        <v>0.96745000000000003</v>
       </c>
       <c r="E22">
-        <v>0.94891999999999999</v>
+        <v>0.96943000000000001</v>
       </c>
       <c r="F22">
-        <v>0.94964000000000004</v>
+        <v>0.97138000000000002</v>
       </c>
       <c r="G22">
-        <v>0.95033999999999996</v>
+        <v>0.97328999999999999</v>
       </c>
       <c r="H22">
         <v>1.05</v>
@@ -20474,22 +19312,22 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>0.94647000000000003</v>
+        <v>0.97474000000000005</v>
       </c>
       <c r="C23">
-        <v>0.94726999999999995</v>
+        <v>0.97538000000000002</v>
       </c>
       <c r="D23">
-        <v>0.94803999999999999</v>
+        <v>0.97601000000000004</v>
       </c>
       <c r="E23">
-        <v>0.94879999999999998</v>
+        <v>0.97662000000000004</v>
       </c>
       <c r="F23">
-        <v>0.94955000000000001</v>
+        <v>0.97721000000000002</v>
       </c>
       <c r="G23">
-        <v>0.95026999999999995</v>
+        <v>0.97779000000000005</v>
       </c>
       <c r="H23">
         <v>1.05</v>
@@ -20503,22 +19341,22 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>0.94211</v>
+        <v>0.97463999999999995</v>
       </c>
       <c r="C24">
-        <v>0.94311999999999996</v>
+        <v>0.97535000000000005</v>
       </c>
       <c r="D24">
-        <v>0.94411</v>
+        <v>0.97604000000000002</v>
       </c>
       <c r="E24">
-        <v>0.94508000000000003</v>
+        <v>0.97672000000000003</v>
       </c>
       <c r="F24">
-        <v>0.94603000000000004</v>
+        <v>0.97736999999999996</v>
       </c>
       <c r="G24">
-        <v>0.94696000000000002</v>
+        <v>0.97801000000000005</v>
       </c>
       <c r="H24">
         <v>1.05</v>
@@ -20532,22 +19370,22 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>0.93893000000000004</v>
+        <v>0.96126</v>
       </c>
       <c r="C25">
-        <v>0.94013000000000002</v>
+        <v>0.96258999999999995</v>
       </c>
       <c r="D25">
-        <v>0.94130000000000003</v>
+        <v>0.96389000000000002</v>
       </c>
       <c r="E25">
-        <v>0.94245999999999996</v>
+        <v>0.96516000000000002</v>
       </c>
       <c r="F25">
-        <v>0.94360999999999995</v>
+        <v>0.96640000000000004</v>
       </c>
       <c r="G25">
-        <v>0.94472999999999996</v>
+        <v>0.96760000000000002</v>
       </c>
       <c r="H25">
         <v>1.05</v>
@@ -20561,22 +19399,22 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>0.93779000000000001</v>
+        <v>0.95811000000000002</v>
       </c>
       <c r="C26">
-        <v>0.93906000000000001</v>
+        <v>0.95970999999999995</v>
       </c>
       <c r="D26">
-        <v>0.94030000000000002</v>
+        <v>0.96126999999999996</v>
       </c>
       <c r="E26">
-        <v>0.94152999999999998</v>
+        <v>0.96281000000000005</v>
       </c>
       <c r="F26">
-        <v>0.94274000000000002</v>
+        <v>0.96431</v>
       </c>
       <c r="G26">
-        <v>0.94393000000000005</v>
+        <v>0.96577999999999997</v>
       </c>
       <c r="H26">
         <v>1.05</v>
@@ -20590,22 +19428,22 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>0.95416999999999996</v>
+        <v>0.95565</v>
       </c>
       <c r="C27">
-        <v>0.95464000000000004</v>
+        <v>0.95750000000000002</v>
       </c>
       <c r="D27">
-        <v>0.95508999999999999</v>
+        <v>0.95931999999999995</v>
       </c>
       <c r="E27">
-        <v>0.95553999999999994</v>
+        <v>0.96109999999999995</v>
       </c>
       <c r="F27">
-        <v>0.95596999999999999</v>
+        <v>0.96284999999999998</v>
       </c>
       <c r="G27">
-        <v>0.95638999999999996</v>
+        <v>0.96455999999999997</v>
       </c>
       <c r="H27">
         <v>1.05</v>
@@ -20619,22 +19457,22 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>0.95321</v>
+        <v>0.95462999999999998</v>
       </c>
       <c r="C28">
-        <v>0.95376000000000005</v>
+        <v>0.95659000000000005</v>
       </c>
       <c r="D28">
-        <v>0.95430999999999999</v>
+        <v>0.95850000000000002</v>
       </c>
       <c r="E28">
-        <v>0.95484000000000002</v>
+        <v>0.96038000000000001</v>
       </c>
       <c r="F28">
-        <v>0.95535999999999999</v>
+        <v>0.96223000000000003</v>
       </c>
       <c r="G28">
-        <v>0.95587</v>
+        <v>0.96404000000000001</v>
       </c>
       <c r="H28">
         <v>1.05</v>
@@ -20648,22 +19486,22 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>0.95072000000000001</v>
+        <v>0.95404999999999995</v>
       </c>
       <c r="C29">
-        <v>0.95147000000000004</v>
+        <v>0.95604999999999996</v>
       </c>
       <c r="D29">
-        <v>0.95221</v>
+        <v>0.95801000000000003</v>
       </c>
       <c r="E29">
-        <v>0.95294000000000001</v>
+        <v>0.95992999999999995</v>
       </c>
       <c r="F29">
-        <v>0.95367000000000002</v>
+        <v>0.96182999999999996</v>
       </c>
       <c r="G29">
-        <v>0.95437000000000005</v>
+        <v>0.96367999999999998</v>
       </c>
       <c r="H29">
         <v>1.05</v>
@@ -20677,22 +19515,22 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>0.94986000000000004</v>
+        <v>0.96126</v>
       </c>
       <c r="C30">
-        <v>0.95065</v>
+        <v>0.96238000000000001</v>
       </c>
       <c r="D30">
-        <v>0.95143</v>
+        <v>0.96348999999999996</v>
       </c>
       <c r="E30">
-        <v>0.95218999999999998</v>
+        <v>0.96457000000000004</v>
       </c>
       <c r="F30">
-        <v>0.95294999999999996</v>
+        <v>0.96562999999999999</v>
       </c>
       <c r="G30">
-        <v>0.95369000000000004</v>
+        <v>0.96667999999999998</v>
       </c>
       <c r="H30">
         <v>1.05</v>
@@ -20706,22 +19544,22 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>0.94620000000000004</v>
+        <v>0.96060999999999996</v>
       </c>
       <c r="C31">
-        <v>0.94689000000000001</v>
+        <v>0.96175999999999995</v>
       </c>
       <c r="D31">
-        <v>0.94755999999999996</v>
+        <v>0.96289999999999998</v>
       </c>
       <c r="E31">
-        <v>0.94821999999999995</v>
+        <v>0.96401999999999999</v>
       </c>
       <c r="F31">
-        <v>0.94886999999999999</v>
+        <v>0.96511000000000002</v>
       </c>
       <c r="G31">
-        <v>0.94950999999999997</v>
+        <v>0.96618999999999999</v>
       </c>
       <c r="H31">
         <v>1.05</v>
@@ -20735,22 +19573,22 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>0.94501000000000002</v>
+        <v>0.95896999999999999</v>
       </c>
       <c r="C32">
-        <v>0.94572999999999996</v>
+        <v>0.96021000000000001</v>
       </c>
       <c r="D32">
-        <v>0.94643999999999995</v>
+        <v>0.96143000000000001</v>
       </c>
       <c r="E32">
-        <v>0.94713999999999998</v>
+        <v>0.96262999999999999</v>
       </c>
       <c r="F32">
-        <v>0.94784000000000002</v>
+        <v>0.96380999999999994</v>
       </c>
       <c r="G32">
-        <v>0.94852000000000003</v>
+        <v>0.96496999999999999</v>
       </c>
       <c r="H32">
         <v>1.05</v>
@@ -20764,22 +19602,22 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>0.94445999999999997</v>
+        <v>0.96702999999999995</v>
       </c>
       <c r="C33">
-        <v>0.94521999999999995</v>
+        <v>0.96779000000000004</v>
       </c>
       <c r="D33">
-        <v>0.94596000000000002</v>
+        <v>0.96853</v>
       </c>
       <c r="E33">
-        <v>0.94669999999999999</v>
+        <v>0.96923000000000004</v>
       </c>
       <c r="F33">
-        <v>0.94742000000000004</v>
+        <v>0.96989999999999998</v>
       </c>
       <c r="G33">
-        <v>0.94813000000000003</v>
+        <v>0.97055000000000002</v>
       </c>
       <c r="H33">
         <v>1.05</v>
@@ -20793,22 +19631,22 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>0.95350999999999997</v>
+        <v>0.96582999999999997</v>
       </c>
       <c r="C34">
-        <v>0.95408000000000004</v>
+        <v>0.96672000000000002</v>
       </c>
       <c r="D34">
-        <v>0.95464000000000004</v>
+        <v>0.96758999999999995</v>
       </c>
       <c r="E34">
-        <v>0.95518000000000003</v>
+        <v>0.96841999999999995</v>
       </c>
       <c r="F34">
-        <v>0.95572000000000001</v>
+        <v>0.96923000000000004</v>
       </c>
       <c r="G34">
-        <v>0.95625000000000004</v>
+        <v>0.97</v>
       </c>
       <c r="H34">
         <v>1.05</v>
@@ -20822,22 +19660,22 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>0.95340999999999998</v>
+        <v>0.96564000000000005</v>
       </c>
       <c r="C35">
-        <v>0.95404999999999995</v>
+        <v>0.96655999999999997</v>
       </c>
       <c r="D35">
-        <v>0.95467000000000002</v>
+        <v>0.96745000000000003</v>
       </c>
       <c r="E35">
-        <v>0.95528000000000002</v>
+        <v>0.96831</v>
       </c>
       <c r="F35">
-        <v>0.95589000000000002</v>
+        <v>0.96914</v>
       </c>
       <c r="G35">
-        <v>0.95648</v>
+        <v>0.96994000000000002</v>
       </c>
       <c r="H35">
         <v>1.05</v>
@@ -20851,22 +19689,22 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>0.93972</v>
+        <v>0.97536999999999996</v>
       </c>
       <c r="C36">
-        <v>0.94077999999999995</v>
+        <v>0.97594999999999998</v>
       </c>
       <c r="D36">
-        <v>0.94181999999999999</v>
+        <v>0.97652000000000005</v>
       </c>
       <c r="E36">
-        <v>0.94284999999999997</v>
+        <v>0.97706000000000004</v>
       </c>
       <c r="F36">
-        <v>0.94388000000000005</v>
+        <v>0.97758999999999996</v>
       </c>
       <c r="G36">
-        <v>0.94488000000000005</v>
+        <v>0.97809999999999997</v>
       </c>
       <c r="H36">
         <v>1.05</v>
@@ -20880,22 +19718,22 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>0.93905000000000005</v>
+        <v>0.96136999999999995</v>
       </c>
       <c r="C37">
-        <v>0.94013999999999998</v>
+        <v>0.96250000000000002</v>
       </c>
       <c r="D37">
-        <v>0.94121999999999995</v>
+        <v>0.96358999999999995</v>
       </c>
       <c r="E37">
-        <v>0.94228999999999996</v>
+        <v>0.96465999999999996</v>
       </c>
       <c r="F37">
-        <v>0.94335000000000002</v>
+        <v>0.96569000000000005</v>
       </c>
       <c r="G37">
-        <v>0.94438999999999995</v>
+        <v>0.96669000000000005</v>
       </c>
       <c r="H37">
         <v>1.05</v>
@@ -20909,22 +19747,22 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <v>0.93737999999999999</v>
+        <v>0.95825000000000005</v>
       </c>
       <c r="C38">
-        <v>0.93855999999999995</v>
+        <v>0.95957000000000003</v>
       </c>
       <c r="D38">
-        <v>0.93972</v>
+        <v>0.96084999999999998</v>
       </c>
       <c r="E38">
-        <v>0.94086999999999998</v>
+        <v>0.96209999999999996</v>
       </c>
       <c r="F38">
-        <v>0.94201000000000001</v>
+        <v>0.96331999999999995</v>
       </c>
       <c r="G38">
-        <v>0.94313999999999998</v>
+        <v>0.96450000000000002</v>
       </c>
       <c r="H38">
         <v>1.05</v>
@@ -20938,22 +19776,22 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <v>0.95416000000000001</v>
+        <v>0.95713999999999999</v>
       </c>
       <c r="C39">
-        <v>0.95465999999999995</v>
+        <v>0.95852000000000004</v>
       </c>
       <c r="D39">
-        <v>0.95516000000000001</v>
+        <v>0.95987</v>
       </c>
       <c r="E39">
-        <v>0.95564000000000004</v>
+        <v>0.96118000000000003</v>
       </c>
       <c r="F39">
-        <v>0.95611000000000002</v>
+        <v>0.96247000000000005</v>
       </c>
       <c r="G39">
-        <v>0.95657000000000003</v>
+        <v>0.96372000000000002</v>
       </c>
       <c r="H39">
         <v>1.05</v>
@@ -20967,22 +19805,22 @@
         <v>37</v>
       </c>
       <c r="B40">
-        <v>0.95111999999999997</v>
+        <v>0.97240000000000004</v>
       </c>
       <c r="C40">
-        <v>0.95187999999999995</v>
+        <v>0.97323000000000004</v>
       </c>
       <c r="D40">
-        <v>0.95262000000000002</v>
+        <v>0.97404000000000002</v>
       </c>
       <c r="E40">
-        <v>0.95335000000000003</v>
+        <v>0.97482999999999997</v>
       </c>
       <c r="F40">
-        <v>0.95408000000000004</v>
+        <v>0.97560999999999998</v>
       </c>
       <c r="G40">
-        <v>0.95479000000000003</v>
+        <v>0.97636000000000001</v>
       </c>
       <c r="H40">
         <v>1.05</v>
@@ -20996,28 +19834,48 @@
         <v>38</v>
       </c>
       <c r="B41">
-        <v>0.95108000000000004</v>
+        <v>0.97236999999999996</v>
       </c>
       <c r="C41">
-        <v>0.95184000000000002</v>
+        <v>0.97319999999999995</v>
       </c>
       <c r="D41">
-        <v>0.95259000000000005</v>
+        <v>0.97401000000000004</v>
       </c>
       <c r="E41">
-        <v>0.95333000000000001</v>
+        <v>0.97480999999999995</v>
       </c>
       <c r="F41">
-        <v>0.95406000000000002</v>
+        <v>0.97558</v>
       </c>
       <c r="G41">
-        <v>0.95477000000000001</v>
+        <v>0.97633999999999999</v>
       </c>
       <c r="H41">
         <v>1.05</v>
       </c>
       <c r="I41">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21032,10 +19890,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832E3721-4C53-4F9C-92BA-173B02977E54}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21083,33 +19941,33 @@
         <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
+      <c r="A3" s="4">
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.92517000000000005</v>
+        <v>0.95006000000000002</v>
       </c>
       <c r="C3">
-        <v>0.92617000000000005</v>
+        <v>0.95126999999999995</v>
       </c>
       <c r="D3">
-        <v>0.92713000000000001</v>
+        <v>0.95240000000000002</v>
       </c>
       <c r="E3">
-        <v>0.92803000000000002</v>
+        <v>0.95347000000000004</v>
       </c>
       <c r="F3">
-        <v>0.92889999999999995</v>
+        <v>0.95445999999999998</v>
       </c>
       <c r="G3">
-        <v>0.92969999999999997</v>
+        <v>0.95538000000000001</v>
       </c>
       <c r="H3">
         <v>1.05</v>
@@ -21123,22 +19981,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.91940999999999995</v>
+        <v>0.94432000000000005</v>
       </c>
       <c r="C4">
-        <v>0.92068000000000005</v>
+        <v>0.94581000000000004</v>
       </c>
       <c r="D4">
-        <v>0.92188999999999999</v>
+        <v>0.94721999999999995</v>
       </c>
       <c r="E4">
-        <v>0.92306999999999995</v>
+        <v>0.94855</v>
       </c>
       <c r="F4">
-        <v>0.92418999999999996</v>
+        <v>0.94982</v>
       </c>
       <c r="G4">
-        <v>0.92525999999999997</v>
+        <v>0.95101000000000002</v>
       </c>
       <c r="H4">
         <v>1.05</v>
@@ -21152,22 +20010,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.91510000000000002</v>
+        <v>0.94001000000000001</v>
       </c>
       <c r="C5">
-        <v>0.91657</v>
+        <v>0.94171000000000005</v>
       </c>
       <c r="D5">
-        <v>0.91798000000000002</v>
+        <v>0.94332000000000005</v>
       </c>
       <c r="E5">
-        <v>0.91935</v>
+        <v>0.94486999999999999</v>
       </c>
       <c r="F5">
-        <v>0.92066999999999999</v>
+        <v>0.94633999999999996</v>
       </c>
       <c r="G5">
-        <v>0.92193999999999998</v>
+        <v>0.94772999999999996</v>
       </c>
       <c r="H5">
         <v>1.05</v>
@@ -21181,22 +20039,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.91222999999999999</v>
+        <v>0.93713999999999997</v>
       </c>
       <c r="C6">
-        <v>0.91383000000000003</v>
+        <v>0.93896999999999997</v>
       </c>
       <c r="D6">
-        <v>0.91537999999999997</v>
+        <v>0.94072</v>
       </c>
       <c r="E6">
-        <v>0.91688000000000003</v>
+        <v>0.94240000000000002</v>
       </c>
       <c r="F6">
-        <v>0.91832999999999998</v>
+        <v>0.94401000000000002</v>
       </c>
       <c r="G6">
-        <v>0.91973000000000005</v>
+        <v>0.94555</v>
       </c>
       <c r="H6">
         <v>1.05</v>
@@ -21210,22 +20068,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.91080000000000005</v>
+        <v>0.93569999999999998</v>
       </c>
       <c r="C7">
-        <v>0.91246000000000005</v>
+        <v>0.93759999999999999</v>
       </c>
       <c r="D7">
-        <v>0.91408</v>
+        <v>0.93942000000000003</v>
       </c>
       <c r="E7">
-        <v>0.91564000000000001</v>
+        <v>0.94116999999999995</v>
       </c>
       <c r="F7">
-        <v>0.91715999999999998</v>
+        <v>0.94284999999999997</v>
       </c>
       <c r="G7">
-        <v>0.91861999999999999</v>
+        <v>0.94445000000000001</v>
       </c>
       <c r="H7">
         <v>1.05</v>
@@ -21239,22 +20097,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.92488999999999999</v>
+        <v>0.94979000000000002</v>
       </c>
       <c r="C8">
-        <v>0.92591999999999997</v>
+        <v>0.95103000000000004</v>
       </c>
       <c r="D8">
-        <v>0.92689999999999995</v>
+        <v>0.95218999999999998</v>
       </c>
       <c r="E8">
-        <v>0.92784</v>
+        <v>0.95328000000000002</v>
       </c>
       <c r="F8">
-        <v>0.92873000000000006</v>
+        <v>0.95428999999999997</v>
       </c>
       <c r="G8">
-        <v>0.92956000000000005</v>
+        <v>0.95523999999999998</v>
       </c>
       <c r="H8">
         <v>1.05</v>
@@ -21268,22 +20126,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.92390000000000005</v>
+        <v>0.94882</v>
       </c>
       <c r="C9">
-        <v>0.92501999999999995</v>
+        <v>0.95015000000000005</v>
       </c>
       <c r="D9">
-        <v>0.92610000000000003</v>
+        <v>0.95140000000000002</v>
       </c>
       <c r="E9">
-        <v>0.92712000000000006</v>
+        <v>0.95257999999999998</v>
       </c>
       <c r="F9">
-        <v>0.92810000000000004</v>
+        <v>0.95369000000000004</v>
       </c>
       <c r="G9">
-        <v>0.92903000000000002</v>
+        <v>0.95472000000000001</v>
       </c>
       <c r="H9">
         <v>1.05</v>
@@ -21297,22 +20155,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.92135</v>
+        <v>0.94632000000000005</v>
       </c>
       <c r="C10">
-        <v>0.92267999999999994</v>
+        <v>0.94784999999999997</v>
       </c>
       <c r="D10">
-        <v>0.92395000000000005</v>
+        <v>0.94930000000000003</v>
       </c>
       <c r="E10">
-        <v>0.92517000000000005</v>
+        <v>0.95067999999999997</v>
       </c>
       <c r="F10">
-        <v>0.92635999999999996</v>
+        <v>0.95199</v>
       </c>
       <c r="G10">
-        <v>0.92749000000000004</v>
+        <v>0.95321999999999996</v>
       </c>
       <c r="H10">
         <v>1.05</v>
@@ -21326,22 +20184,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.92047999999999996</v>
+        <v>0.94545999999999997</v>
       </c>
       <c r="C11">
-        <v>0.92183999999999999</v>
+        <v>0.94703000000000004</v>
       </c>
       <c r="D11">
-        <v>0.92313999999999996</v>
+        <v>0.94850999999999996</v>
       </c>
       <c r="E11">
-        <v>0.9244</v>
+        <v>0.94993000000000005</v>
       </c>
       <c r="F11">
-        <v>0.92562</v>
+        <v>0.95126999999999995</v>
       </c>
       <c r="G11">
-        <v>0.92678000000000005</v>
+        <v>0.95254000000000005</v>
       </c>
       <c r="H11">
         <v>1.05</v>
@@ -21355,22 +20213,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.92034000000000005</v>
+        <v>0.94532000000000005</v>
       </c>
       <c r="C12">
-        <v>0.92171000000000003</v>
+        <v>0.94689000000000001</v>
       </c>
       <c r="D12">
-        <v>0.92301999999999995</v>
+        <v>0.94838999999999996</v>
       </c>
       <c r="E12">
-        <v>0.92428999999999994</v>
+        <v>0.94981000000000004</v>
       </c>
       <c r="F12">
-        <v>0.92551000000000005</v>
+        <v>0.95116999999999996</v>
       </c>
       <c r="G12">
-        <v>0.92669000000000001</v>
+        <v>0.95245000000000002</v>
       </c>
       <c r="H12">
         <v>1.05</v>
@@ -21384,22 +20242,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.91935999999999996</v>
+        <v>0.94435000000000002</v>
       </c>
       <c r="C13">
-        <v>0.92079</v>
+        <v>0.94599</v>
       </c>
       <c r="D13">
-        <v>0.92217000000000005</v>
+        <v>0.94755</v>
       </c>
       <c r="E13">
-        <v>0.92349999999999999</v>
+        <v>0.94903999999999999</v>
       </c>
       <c r="F13">
-        <v>0.92478000000000005</v>
+        <v>0.95045000000000002</v>
       </c>
       <c r="G13">
-        <v>0.92601999999999995</v>
+        <v>0.95179999999999998</v>
       </c>
       <c r="H13">
         <v>1.05</v>
@@ -21413,22 +20271,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.91683000000000003</v>
+        <v>0.94179000000000002</v>
       </c>
       <c r="C14">
-        <v>0.91807000000000005</v>
+        <v>0.94325000000000003</v>
       </c>
       <c r="D14">
-        <v>0.91925999999999997</v>
+        <v>0.94462999999999997</v>
       </c>
       <c r="E14">
-        <v>0.9204</v>
+        <v>0.94594</v>
       </c>
       <c r="F14">
-        <v>0.92149999999999999</v>
+        <v>0.94718000000000002</v>
       </c>
       <c r="G14">
-        <v>0.92254000000000003</v>
+        <v>0.94835000000000003</v>
       </c>
       <c r="H14">
         <v>1.05</v>
@@ -21442,22 +20300,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.91561999999999999</v>
+        <v>0.94057999999999997</v>
       </c>
       <c r="C15">
-        <v>0.91690000000000005</v>
+        <v>0.94208000000000003</v>
       </c>
       <c r="D15">
-        <v>0.91813</v>
+        <v>0.94350999999999996</v>
       </c>
       <c r="E15">
-        <v>0.91930999999999996</v>
+        <v>0.94486000000000003</v>
       </c>
       <c r="F15">
-        <v>0.92044000000000004</v>
+        <v>0.94615000000000005</v>
       </c>
       <c r="G15">
-        <v>0.92152000000000001</v>
+        <v>0.94735999999999998</v>
       </c>
       <c r="H15">
         <v>1.05</v>
@@ -21471,22 +20329,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.91507000000000005</v>
+        <v>0.94003999999999999</v>
       </c>
       <c r="C16">
-        <v>0.91637999999999997</v>
+        <v>0.94157000000000002</v>
       </c>
       <c r="D16">
-        <v>0.91764000000000001</v>
+        <v>0.94303000000000003</v>
       </c>
       <c r="E16">
-        <v>0.91884999999999994</v>
+        <v>0.94442000000000004</v>
       </c>
       <c r="F16">
-        <v>0.92001999999999995</v>
+        <v>0.94572999999999996</v>
       </c>
       <c r="G16">
-        <v>0.92113</v>
+        <v>0.94696999999999998</v>
       </c>
       <c r="H16">
         <v>1.05</v>
@@ -21500,22 +20358,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.92386999999999997</v>
+        <v>0.94879999999999998</v>
       </c>
       <c r="C17">
-        <v>0.92498000000000002</v>
+        <v>0.95011000000000001</v>
       </c>
       <c r="D17">
-        <v>0.92603000000000002</v>
+        <v>0.95133999999999996</v>
       </c>
       <c r="E17">
-        <v>0.92705000000000004</v>
+        <v>0.95250000000000001</v>
       </c>
       <c r="F17">
-        <v>0.92801</v>
+        <v>0.95359000000000005</v>
       </c>
       <c r="G17">
-        <v>0.92891999999999997</v>
+        <v>0.95462000000000002</v>
       </c>
       <c r="H17">
         <v>1.05</v>
@@ -21529,22 +20387,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.92259000000000002</v>
+        <v>0.94754000000000005</v>
       </c>
       <c r="C18">
-        <v>0.92388999999999999</v>
+        <v>0.94904999999999995</v>
       </c>
       <c r="D18">
-        <v>0.92515000000000003</v>
+        <v>0.95047999999999999</v>
       </c>
       <c r="E18">
-        <v>0.92635999999999996</v>
+        <v>0.95184000000000002</v>
       </c>
       <c r="F18">
-        <v>0.92752999999999997</v>
+        <v>0.95313000000000003</v>
       </c>
       <c r="G18">
-        <v>0.92864000000000002</v>
+        <v>0.95435000000000003</v>
       </c>
       <c r="H18">
         <v>1.05</v>
@@ -21558,22 +20416,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.91996999999999995</v>
+        <v>0.94496000000000002</v>
       </c>
       <c r="C19">
-        <v>0.92183000000000004</v>
+        <v>0.94701999999999997</v>
       </c>
       <c r="D19">
-        <v>0.92364000000000002</v>
+        <v>0.94901000000000002</v>
       </c>
       <c r="E19">
-        <v>0.92540999999999995</v>
+        <v>0.95091000000000003</v>
       </c>
       <c r="F19">
-        <v>0.92713999999999996</v>
+        <v>0.95274000000000003</v>
       </c>
       <c r="G19">
-        <v>0.92879999999999996</v>
+        <v>0.95450000000000002</v>
       </c>
       <c r="H19">
         <v>1.05</v>
@@ -21587,22 +20445,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.91927000000000003</v>
+        <v>0.94427000000000005</v>
       </c>
       <c r="C20">
-        <v>0.92164000000000001</v>
+        <v>0.94682999999999995</v>
       </c>
       <c r="D20">
-        <v>0.92395000000000005</v>
+        <v>0.94930999999999999</v>
       </c>
       <c r="E20">
-        <v>0.92623</v>
+        <v>0.95170999999999994</v>
       </c>
       <c r="F20">
-        <v>0.92845999999999995</v>
+        <v>0.95403000000000004</v>
       </c>
       <c r="G20">
-        <v>0.93062</v>
+        <v>0.95628000000000002</v>
       </c>
       <c r="H20">
         <v>1.05</v>
@@ -21616,22 +20474,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.91927000000000003</v>
+        <v>0.94427000000000005</v>
       </c>
       <c r="C21">
-        <v>0.92171000000000003</v>
+        <v>0.94689999999999996</v>
       </c>
       <c r="D21">
-        <v>0.92408999999999997</v>
+        <v>0.94943999999999995</v>
       </c>
       <c r="E21">
-        <v>0.92642999999999998</v>
+        <v>0.95189999999999997</v>
       </c>
       <c r="F21">
-        <v>0.92873000000000006</v>
+        <v>0.95428999999999997</v>
       </c>
       <c r="G21">
-        <v>0.93096000000000001</v>
+        <v>0.95660000000000001</v>
       </c>
       <c r="H21">
         <v>1.05</v>
@@ -21645,22 +20503,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.92420000000000002</v>
+        <v>0.94911999999999996</v>
       </c>
       <c r="C22">
-        <v>0.92534000000000005</v>
+        <v>0.95045999999999997</v>
       </c>
       <c r="D22">
-        <v>0.92642999999999998</v>
+        <v>0.95172999999999996</v>
       </c>
       <c r="E22">
-        <v>0.92747999999999997</v>
+        <v>0.95291999999999999</v>
       </c>
       <c r="F22">
-        <v>0.92847000000000002</v>
+        <v>0.95404999999999995</v>
       </c>
       <c r="G22">
-        <v>0.92942000000000002</v>
+        <v>0.95509999999999995</v>
       </c>
       <c r="H22">
         <v>1.05</v>
@@ -21674,22 +20532,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.92410000000000003</v>
+        <v>0.94903000000000004</v>
       </c>
       <c r="C23">
-        <v>0.92530999999999997</v>
+        <v>0.95043</v>
       </c>
       <c r="D23">
-        <v>0.92647000000000002</v>
+        <v>0.95176000000000005</v>
       </c>
       <c r="E23">
-        <v>0.92757999999999996</v>
+        <v>0.95301999999999998</v>
       </c>
       <c r="F23">
-        <v>0.92864000000000002</v>
+        <v>0.95421</v>
       </c>
       <c r="G23">
-        <v>0.92964999999999998</v>
+        <v>0.95533000000000001</v>
       </c>
       <c r="H23">
         <v>1.05</v>
@@ -21703,22 +20561,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.91720999999999997</v>
+        <v>0.94210000000000005</v>
       </c>
       <c r="C24">
-        <v>0.91888999999999998</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="D24">
-        <v>0.92051000000000005</v>
+        <v>0.94581999999999999</v>
       </c>
       <c r="E24">
-        <v>0.92206999999999995</v>
+        <v>0.94755999999999996</v>
       </c>
       <c r="F24">
-        <v>0.92359000000000002</v>
+        <v>0.94921999999999995</v>
       </c>
       <c r="G24">
-        <v>0.92505999999999999</v>
+        <v>0.95082</v>
       </c>
       <c r="H24">
         <v>1.05</v>
@@ -21732,22 +20590,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.91400999999999999</v>
+        <v>0.93889</v>
       </c>
       <c r="C25">
-        <v>0.91595000000000004</v>
+        <v>0.94106000000000001</v>
       </c>
       <c r="D25">
-        <v>0.91783000000000003</v>
+        <v>0.94315000000000004</v>
       </c>
       <c r="E25">
-        <v>0.91966000000000003</v>
+        <v>0.94516</v>
       </c>
       <c r="F25">
-        <v>0.92144000000000004</v>
+        <v>0.94710000000000005</v>
       </c>
       <c r="G25">
-        <v>0.92317000000000005</v>
+        <v>0.94896000000000003</v>
       </c>
       <c r="H25">
         <v>1.05</v>
@@ -21761,22 +20619,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.91152</v>
+        <v>0.93637999999999999</v>
       </c>
       <c r="C26">
-        <v>0.91369999999999996</v>
+        <v>0.93881000000000003</v>
       </c>
       <c r="D26">
-        <v>0.91583999999999999</v>
+        <v>0.94115000000000004</v>
       </c>
       <c r="E26">
-        <v>0.91791999999999996</v>
+        <v>0.94342000000000004</v>
       </c>
       <c r="F26">
-        <v>0.91995000000000005</v>
+        <v>0.94560999999999995</v>
       </c>
       <c r="G26">
-        <v>0.92191999999999996</v>
+        <v>0.94772000000000001</v>
       </c>
       <c r="H26">
         <v>1.05</v>
@@ -21790,22 +20648,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.91049000000000002</v>
+        <v>0.93533999999999995</v>
       </c>
       <c r="C27">
-        <v>0.91276999999999997</v>
+        <v>0.93786999999999998</v>
       </c>
       <c r="D27">
-        <v>0.91500999999999999</v>
+        <v>0.94032000000000004</v>
       </c>
       <c r="E27">
-        <v>0.91718999999999995</v>
+        <v>0.94269000000000003</v>
       </c>
       <c r="F27">
-        <v>0.91932000000000003</v>
+        <v>0.94498000000000004</v>
       </c>
       <c r="G27">
-        <v>0.92139000000000004</v>
+        <v>0.94720000000000004</v>
       </c>
       <c r="H27">
         <v>1.05</v>
@@ -21819,22 +20677,22 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.90990000000000004</v>
+        <v>0.93474999999999997</v>
       </c>
       <c r="C28">
-        <v>0.91222999999999999</v>
+        <v>0.93733</v>
       </c>
       <c r="D28">
-        <v>0.91449999999999998</v>
+        <v>0.93981999999999999</v>
       </c>
       <c r="E28">
-        <v>0.91673000000000004</v>
+        <v>0.94223000000000001</v>
       </c>
       <c r="F28">
-        <v>0.91890000000000005</v>
+        <v>0.94457000000000002</v>
       </c>
       <c r="G28">
-        <v>0.92101</v>
+        <v>0.94682999999999995</v>
       </c>
       <c r="H28">
         <v>1.05</v>
@@ -21848,22 +20706,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.91049000000000002</v>
+        <v>0.93527000000000005</v>
       </c>
       <c r="C29">
-        <v>0.91208999999999996</v>
+        <v>0.93711</v>
       </c>
       <c r="D29">
-        <v>0.91363000000000005</v>
+        <v>0.93888000000000005</v>
       </c>
       <c r="E29">
-        <v>0.91513</v>
+        <v>0.94055999999999995</v>
       </c>
       <c r="F29">
-        <v>0.91657999999999995</v>
+        <v>0.94218000000000002</v>
       </c>
       <c r="G29">
-        <v>0.91798000000000002</v>
+        <v>0.94372</v>
       </c>
       <c r="H29">
         <v>1.05</v>
@@ -21877,22 +20735,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.90983000000000003</v>
+        <v>0.93459999999999999</v>
       </c>
       <c r="C30">
-        <v>0.91146000000000005</v>
+        <v>0.93647999999999998</v>
       </c>
       <c r="D30">
-        <v>0.91303999999999996</v>
+        <v>0.93827000000000005</v>
       </c>
       <c r="E30">
-        <v>0.91456999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="F30">
-        <v>0.91605000000000003</v>
+        <v>0.94164999999999999</v>
       </c>
       <c r="G30">
-        <v>0.91747000000000001</v>
+        <v>0.94321999999999995</v>
       </c>
       <c r="H30">
         <v>1.05</v>
@@ -21906,22 +20764,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.90817000000000003</v>
+        <v>0.93291999999999997</v>
       </c>
       <c r="C31">
-        <v>0.90988000000000002</v>
+        <v>0.93488000000000004</v>
       </c>
       <c r="D31">
-        <v>0.91154000000000002</v>
+        <v>0.93676999999999999</v>
       </c>
       <c r="E31">
-        <v>0.91315000000000002</v>
+        <v>0.93857999999999997</v>
       </c>
       <c r="F31">
-        <v>0.91471999999999998</v>
+        <v>0.94030999999999998</v>
       </c>
       <c r="G31">
-        <v>0.91622000000000003</v>
+        <v>0.94196999999999997</v>
       </c>
       <c r="H31">
         <v>1.05</v>
@@ -21935,22 +20793,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.92305000000000004</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="C32">
-        <v>0.92415000000000003</v>
+        <v>0.94930000000000003</v>
       </c>
       <c r="D32">
-        <v>0.92520999999999998</v>
+        <v>0.95054000000000005</v>
       </c>
       <c r="E32">
-        <v>0.92622000000000004</v>
+        <v>0.95169999999999999</v>
       </c>
       <c r="F32">
-        <v>0.92718999999999996</v>
+        <v>0.95279000000000003</v>
       </c>
       <c r="G32">
-        <v>0.92810000000000004</v>
+        <v>0.95382</v>
       </c>
       <c r="H32">
         <v>1.05</v>
@@ -21964,22 +20822,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.92179999999999995</v>
+        <v>0.94677</v>
       </c>
       <c r="C33">
-        <v>0.92303999999999997</v>
+        <v>0.94821999999999995</v>
       </c>
       <c r="D33">
-        <v>0.92423</v>
+        <v>0.94957999999999998</v>
       </c>
       <c r="E33">
-        <v>0.92537999999999998</v>
+        <v>0.95087999999999995</v>
       </c>
       <c r="F33">
-        <v>0.92647999999999997</v>
+        <v>0.95209999999999995</v>
       </c>
       <c r="G33">
-        <v>0.92752999999999997</v>
+        <v>0.95326</v>
       </c>
       <c r="H33">
         <v>1.05</v>
@@ -21993,22 +20851,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.92161000000000004</v>
+        <v>0.94657999999999998</v>
       </c>
       <c r="C34">
-        <v>0.92286999999999997</v>
+        <v>0.94804999999999995</v>
       </c>
       <c r="D34">
-        <v>0.92408000000000001</v>
+        <v>0.94943999999999995</v>
       </c>
       <c r="E34">
-        <v>0.92525999999999997</v>
+        <v>0.95076000000000005</v>
       </c>
       <c r="F34">
-        <v>0.92637999999999998</v>
+        <v>0.95201000000000002</v>
       </c>
       <c r="G34">
-        <v>0.92745999999999995</v>
+        <v>0.95318999999999998</v>
       </c>
       <c r="H34">
         <v>1.05</v>
@@ -22022,22 +20880,22 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.92486999999999997</v>
+        <v>0.94977999999999996</v>
       </c>
       <c r="C35">
-        <v>0.92593999999999999</v>
+        <v>0.95104999999999995</v>
       </c>
       <c r="D35">
-        <v>0.92696999999999996</v>
+        <v>0.95225000000000004</v>
       </c>
       <c r="E35">
-        <v>0.92793999999999999</v>
+        <v>0.95338000000000001</v>
       </c>
       <c r="F35">
-        <v>0.92886999999999997</v>
+        <v>0.95443</v>
       </c>
       <c r="G35">
-        <v>0.92974999999999997</v>
+        <v>0.95542000000000005</v>
       </c>
       <c r="H35">
         <v>1.05</v>
@@ -22051,22 +20909,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.91729000000000005</v>
+        <v>0.94221999999999995</v>
       </c>
       <c r="C36">
-        <v>0.91876000000000002</v>
+        <v>0.94391000000000003</v>
       </c>
       <c r="D36">
-        <v>0.92017000000000004</v>
+        <v>0.94550999999999996</v>
       </c>
       <c r="E36">
-        <v>0.92152999999999996</v>
+        <v>0.94704999999999995</v>
       </c>
       <c r="F36">
-        <v>0.92284999999999995</v>
+        <v>0.94850000000000001</v>
       </c>
       <c r="G36">
-        <v>0.92410999999999999</v>
+        <v>0.94989000000000001</v>
       </c>
       <c r="H36">
         <v>1.05</v>
@@ -22080,22 +20938,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.91410000000000002</v>
+        <v>0.93903999999999999</v>
       </c>
       <c r="C37">
-        <v>0.91574999999999995</v>
+        <v>0.94091000000000002</v>
       </c>
       <c r="D37">
-        <v>0.91735</v>
+        <v>0.94271000000000005</v>
       </c>
       <c r="E37">
-        <v>0.91890000000000005</v>
+        <v>0.94443999999999995</v>
       </c>
       <c r="F37">
-        <v>0.9204</v>
+        <v>0.94608999999999999</v>
       </c>
       <c r="G37">
-        <v>0.92183999999999999</v>
+        <v>0.94765999999999995</v>
       </c>
       <c r="H37">
         <v>1.05</v>
@@ -22109,22 +20967,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.91296999999999995</v>
+        <v>0.93789999999999996</v>
       </c>
       <c r="C38">
-        <v>0.91468000000000005</v>
+        <v>0.93984999999999996</v>
       </c>
       <c r="D38">
-        <v>0.91634000000000004</v>
+        <v>0.94171000000000005</v>
       </c>
       <c r="E38">
-        <v>0.91796</v>
+        <v>0.94350000000000001</v>
       </c>
       <c r="F38">
-        <v>0.91952</v>
+        <v>0.94521999999999995</v>
       </c>
       <c r="G38">
-        <v>0.92103000000000002</v>
+        <v>0.94686999999999999</v>
       </c>
       <c r="H38">
         <v>1.05</v>
@@ -22138,22 +20996,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.92176000000000002</v>
+        <v>0.94672000000000001</v>
       </c>
       <c r="C39">
-        <v>0.92308000000000001</v>
+        <v>0.94825000000000004</v>
       </c>
       <c r="D39">
-        <v>0.92435999999999996</v>
+        <v>0.94971000000000005</v>
       </c>
       <c r="E39">
-        <v>0.92559000000000002</v>
+        <v>0.95108999999999999</v>
       </c>
       <c r="F39">
-        <v>0.92678000000000005</v>
+        <v>0.95240000000000002</v>
       </c>
       <c r="G39">
-        <v>0.92791999999999997</v>
+        <v>0.95364000000000004</v>
       </c>
       <c r="H39">
         <v>1.05</v>
@@ -22167,28 +21025,48 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.92171999999999998</v>
+        <v>0.94669000000000003</v>
       </c>
       <c r="C40">
-        <v>0.92305000000000004</v>
+        <v>0.94821999999999995</v>
       </c>
       <c r="D40">
-        <v>0.92432999999999998</v>
+        <v>0.94967999999999997</v>
       </c>
       <c r="E40">
-        <v>0.92557</v>
+        <v>0.95106999999999997</v>
       </c>
       <c r="F40">
-        <v>0.92676000000000003</v>
+        <v>0.95238</v>
       </c>
       <c r="G40">
-        <v>0.92789999999999995</v>
+        <v>0.95362000000000002</v>
       </c>
       <c r="H40">
         <v>1.05</v>
       </c>
       <c r="I40">
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/peak_load-VoltageProfile.xlsx
+++ b/peak_load-VoltageProfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afiq Hafizuddin\Documents\MATLAB\01-STATIC-DUMA-AMEND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473446AA-A3AF-4B78-81C5-C3C10EDE2633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE6F188-A0BA-41B2-9786-1CE215FAEAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parallel" sheetId="1" r:id="rId1"/>
@@ -17047,16 +17047,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>252410</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>328610</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>857249</xdr:rowOff>
+      <xdr:rowOff>407669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>512444</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>55244</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18673,8 +18673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58818F0F-B8A4-4E9E-8A6B-6774FB0B32F0}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19892,8 +19892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832E3721-4C53-4F9C-92BA-173B02977E54}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
